--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2878943.205580512</v>
+        <v>-2880862.624947382</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4003475.499331048</v>
+        <v>4003475.499331056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>336.4786356669601</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>319.0176857744871</v>
       </c>
       <c r="D11" t="n">
         <v>308.4278356241625</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>335.6751640757413</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>360.6208397451909</v>
       </c>
       <c r="G11" t="n">
-        <v>366.3767303348942</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>47.30028928959317</v>
+        <v>49.88637670517645</v>
       </c>
       <c r="I11" t="n">
-        <v>61.25462093850419</v>
+        <v>61.25462093850408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.903981615696</v>
+        <v>101.9039816156959</v>
       </c>
       <c r="T11" t="n">
-        <v>165.1492113858748</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.8767828166185</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>281.4970524736145</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>323.4758946819486</v>
+        <v>323.4758946819485</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.9827326595332</v>
+        <v>339.9827326595331</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I12" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S12" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T12" t="n">
         <v>194.4048372882181</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.9916151021074</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1787566500488</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.5377438965359</v>
+        <v>120.5377438965358</v>
       </c>
       <c r="H13" t="n">
-        <v>105.3203954457955</v>
+        <v>105.3203954457954</v>
       </c>
       <c r="I13" t="n">
-        <v>73.16725555299854</v>
+        <v>73.16725555299845</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.17042414537137</v>
+        <v>77.17042414537127</v>
       </c>
       <c r="S13" t="n">
-        <v>156.8830058115745</v>
+        <v>156.8830058115744</v>
       </c>
       <c r="T13" t="n">
-        <v>176.5715302614051</v>
+        <v>119.2512354475904</v>
       </c>
       <c r="U13" t="n">
-        <v>57.58958051567975</v>
+        <v>239.9984762982212</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.8824373273075</v>
       </c>
       <c r="W13" t="n">
-        <v>240.2677923400706</v>
+        <v>240.2677923400705</v>
       </c>
       <c r="X13" t="n">
-        <v>179.4544493925168</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.3294473555744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.47863566696</v>
+        <v>336.4786356669601</v>
       </c>
       <c r="C14" t="n">
-        <v>319.017685774487</v>
+        <v>319.0176857744871</v>
       </c>
       <c r="D14" t="n">
-        <v>85.90452536753355</v>
+        <v>308.4278356241625</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>335.6751640757413</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>360.6208397451909</v>
       </c>
       <c r="G14" t="n">
-        <v>366.3767303348941</v>
+        <v>35.83523316326176</v>
       </c>
       <c r="H14" t="n">
-        <v>265.8672534964699</v>
+        <v>265.86725349647</v>
       </c>
       <c r="I14" t="n">
-        <v>61.25462093850408</v>
+        <v>61.25462093850405</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.9039816156959</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>165.1492113858747</v>
       </c>
       <c r="U14" t="n">
-        <v>204.8767828166183</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.4970524736144</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>302.9857627208925</v>
@@ -1673,7 +1673,7 @@
         <v>323.4758946819485</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.982732659533</v>
+        <v>339.9827326595331</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I15" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S15" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T15" t="n">
         <v>194.4048372882181</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5767741854168</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>102.3602670216918</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.1787566500487</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.16584202641073</v>
       </c>
       <c r="G16" t="n">
         <v>120.5377438965358</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.17042414537126</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.8830058115744</v>
+        <v>105.5823628987132</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>205.8824373273075</v>
       </c>
       <c r="W16" t="n">
-        <v>177.564549772881</v>
+        <v>240.2677923400705</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.64936067719177</v>
+        <v>40.64936067719178</v>
       </c>
       <c r="T17" t="n">
-        <v>103.8945904473706</v>
+        <v>103.8945904473707</v>
       </c>
       <c r="U17" t="n">
-        <v>143.6221618781142</v>
+        <v>143.6221618781143</v>
       </c>
       <c r="V17" t="n">
         <v>220.2424315351103</v>
@@ -1907,7 +1907,7 @@
         <v>241.7311417823884</v>
       </c>
       <c r="X17" t="n">
-        <v>262.221273743444</v>
+        <v>262.2212737434444</v>
       </c>
       <c r="Y17" t="n">
         <v>278.728111721029</v>
@@ -1941,7 +1941,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I18" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S18" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T18" t="n">
         <v>194.4048372882181</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.32215324691269</v>
+        <v>72.32215324691272</v>
       </c>
       <c r="C19" t="n">
-        <v>59.73699416360323</v>
+        <v>59.73699416360326</v>
       </c>
       <c r="D19" t="n">
-        <v>41.10564608318775</v>
+        <v>41.10564608318778</v>
       </c>
       <c r="E19" t="n">
-        <v>38.92413571154457</v>
+        <v>38.92413571154459</v>
       </c>
       <c r="F19" t="n">
-        <v>37.91122108790664</v>
+        <v>37.91122108790667</v>
       </c>
       <c r="G19" t="n">
-        <v>59.2831229580317</v>
+        <v>59.28312295803173</v>
       </c>
       <c r="H19" t="n">
-        <v>44.0657745072913</v>
+        <v>44.06577450729133</v>
       </c>
       <c r="I19" t="n">
-        <v>11.91263461449434</v>
+        <v>11.91263461449436</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.91580320686717</v>
+        <v>15.91580320686718</v>
       </c>
       <c r="S19" t="n">
-        <v>95.6283848730703</v>
+        <v>95.62838487307033</v>
       </c>
       <c r="T19" t="n">
-        <v>115.3169093229009</v>
+        <v>115.316909322901</v>
       </c>
       <c r="U19" t="n">
         <v>178.7438553597171</v>
@@ -2065,7 +2065,7 @@
         <v>179.0131714015664</v>
       </c>
       <c r="X19" t="n">
-        <v>118.1998284540125</v>
+        <v>118.1998284540126</v>
       </c>
       <c r="Y19" t="n">
         <v>111.0748264170702</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.64936067719178</v>
+        <v>40.64936067719175</v>
       </c>
       <c r="T20" t="n">
         <v>103.8945904473706</v>
@@ -2178,7 +2178,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I21" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S21" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T21" t="n">
         <v>194.4048372882181</v>
@@ -2257,7 +2257,7 @@
         <v>44.0657745072913</v>
       </c>
       <c r="I22" t="n">
-        <v>11.91263461449434</v>
+        <v>11.91263461449433</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.91580320686717</v>
+        <v>15.91580320686715</v>
       </c>
       <c r="S22" t="n">
         <v>95.6283848730703</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.64936067719178</v>
+        <v>40.64936067719175</v>
       </c>
       <c r="T23" t="n">
         <v>103.8945904473706</v>
@@ -2415,7 +2415,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I24" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S24" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T24" t="n">
         <v>194.4048372882181</v>
@@ -2494,7 +2494,7 @@
         <v>44.0657745072913</v>
       </c>
       <c r="I25" t="n">
-        <v>11.91263461449434</v>
+        <v>11.91263461449433</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.91580320686717</v>
+        <v>15.91580320686715</v>
       </c>
       <c r="S25" t="n">
         <v>95.6283848730703</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.0609554110343</v>
+        <v>301.0609554110344</v>
       </c>
       <c r="C26" t="n">
-        <v>283.6000055185613</v>
+        <v>283.6000055185614</v>
       </c>
       <c r="D26" t="n">
-        <v>273.0101553682367</v>
+        <v>273.0101553682368</v>
       </c>
       <c r="E26" t="n">
-        <v>300.2574838198155</v>
+        <v>300.2574838198156</v>
       </c>
       <c r="F26" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892653</v>
       </c>
       <c r="G26" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789685</v>
       </c>
       <c r="H26" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405443</v>
       </c>
       <c r="I26" t="n">
-        <v>25.83694068257834</v>
+        <v>25.83694068257837</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.48630135977014</v>
+        <v>66.48630135977017</v>
       </c>
       <c r="T26" t="n">
-        <v>129.731531129949</v>
+        <v>129.7315311299491</v>
       </c>
       <c r="U26" t="n">
-        <v>169.4591025606926</v>
+        <v>169.4591025606927</v>
       </c>
       <c r="V26" t="n">
         <v>246.0793722176887</v>
@@ -2618,7 +2618,7 @@
         <v>267.5680824649668</v>
       </c>
       <c r="X26" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260229</v>
       </c>
       <c r="Y26" t="n">
         <v>304.5650524036074</v>
@@ -2652,7 +2652,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I27" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S27" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T27" t="n">
         <v>194.4048372882181</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.15909392949105</v>
+        <v>98.15909392949111</v>
       </c>
       <c r="C28" t="n">
-        <v>85.57393484618159</v>
+        <v>85.57393484618164</v>
       </c>
       <c r="D28" t="n">
-        <v>66.94258676576611</v>
+        <v>66.94258676576617</v>
       </c>
       <c r="E28" t="n">
-        <v>64.76107639412292</v>
+        <v>64.76107639412298</v>
       </c>
       <c r="F28" t="n">
-        <v>63.748161770485</v>
+        <v>63.74816177048505</v>
       </c>
       <c r="G28" t="n">
-        <v>85.12006364061004</v>
+        <v>85.1200636406101</v>
       </c>
       <c r="H28" t="n">
-        <v>69.90271518986965</v>
+        <v>69.90271518986971</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7495752970727</v>
+        <v>37.74957529707275</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75274388944553</v>
+        <v>41.75274388944557</v>
       </c>
       <c r="S28" t="n">
         <v>121.4653255556487</v>
@@ -2767,7 +2767,7 @@
         <v>141.1538500054793</v>
       </c>
       <c r="U28" t="n">
-        <v>204.5807960422954</v>
+        <v>204.5807960422955</v>
       </c>
       <c r="V28" t="n">
         <v>170.4647570713818</v>
@@ -2776,7 +2776,7 @@
         <v>204.8501120841448</v>
       </c>
       <c r="X28" t="n">
-        <v>144.0367691365909</v>
+        <v>144.036769136591</v>
       </c>
       <c r="Y28" t="n">
         <v>136.9117670996486</v>
@@ -2810,7 +2810,7 @@
         <v>230.4495732405443</v>
       </c>
       <c r="I29" t="n">
-        <v>25.83694068257846</v>
+        <v>25.83694068257842</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.48630135977024</v>
+        <v>66.48630135977021</v>
       </c>
       <c r="T29" t="n">
         <v>129.7315311299491</v>
@@ -2858,7 +2858,7 @@
         <v>288.0582144260229</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.5650524036075</v>
+        <v>304.5650524036074</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I30" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S30" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T30" t="n">
         <v>194.4048372882181</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.15909392949116</v>
+        <v>98.15909392949115</v>
       </c>
       <c r="C31" t="n">
-        <v>85.5739348461817</v>
+        <v>85.57393484618169</v>
       </c>
       <c r="D31" t="n">
-        <v>66.94258676576622</v>
+        <v>66.94258676576621</v>
       </c>
       <c r="E31" t="n">
-        <v>64.76107639412304</v>
+        <v>64.76107639412302</v>
       </c>
       <c r="F31" t="n">
-        <v>63.74816177048511</v>
+        <v>63.7481617704851</v>
       </c>
       <c r="G31" t="n">
         <v>85.12006364061016</v>
       </c>
       <c r="H31" t="n">
-        <v>69.90271518986978</v>
+        <v>69.90271518986975</v>
       </c>
       <c r="I31" t="n">
-        <v>37.74957529707056</v>
+        <v>37.74957529707279</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75274388944564</v>
+        <v>41.75274388944561</v>
       </c>
       <c r="S31" t="n">
-        <v>121.4653255556488</v>
+        <v>121.4653255556487</v>
       </c>
       <c r="T31" t="n">
         <v>141.1538500054794</v>
       </c>
       <c r="U31" t="n">
-        <v>204.5807960422956</v>
+        <v>204.5807960422955</v>
       </c>
       <c r="V31" t="n">
         <v>170.4647570713819</v>
@@ -3016,7 +3016,7 @@
         <v>144.036769136591</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.9117670996487</v>
+        <v>136.9117670996486</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>330.9590500789684</v>
       </c>
       <c r="H32" t="n">
-        <v>230.4495732405443</v>
+        <v>230.4495732405442</v>
       </c>
       <c r="I32" t="n">
-        <v>25.83694068257839</v>
+        <v>25.83694068257836</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.48630135977018</v>
+        <v>66.48630135977015</v>
       </c>
       <c r="T32" t="n">
         <v>129.731531129949</v>
@@ -3126,7 +3126,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I33" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S33" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T33" t="n">
         <v>194.4048372882181</v>
@@ -3205,7 +3205,7 @@
         <v>69.9027151898697</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707273</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75274388944557</v>
+        <v>41.75274388944555</v>
       </c>
       <c r="S34" t="n">
         <v>121.4653255556487</v>
@@ -3266,7 +3266,7 @@
         <v>301.0609554110343</v>
       </c>
       <c r="C35" t="n">
-        <v>283.6000055185614</v>
+        <v>283.6000055185613</v>
       </c>
       <c r="D35" t="n">
         <v>273.0101553682367</v>
@@ -3281,10 +3281,10 @@
         <v>330.9590500789684</v>
       </c>
       <c r="H35" t="n">
-        <v>230.4495732405443</v>
+        <v>230.4495732405442</v>
       </c>
       <c r="I35" t="n">
-        <v>25.83694068257839</v>
+        <v>25.83694068257833</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.48630135977018</v>
+        <v>66.48630135977012</v>
       </c>
       <c r="T35" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U35" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V35" t="n">
         <v>246.0793722176887</v>
@@ -3363,7 +3363,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I36" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S36" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T36" t="n">
         <v>194.4048372882181</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.15909392949109</v>
+        <v>98.15909392949106</v>
       </c>
       <c r="C37" t="n">
-        <v>85.57393484618163</v>
+        <v>85.5739348461816</v>
       </c>
       <c r="D37" t="n">
-        <v>66.94258676576615</v>
+        <v>66.94258676576612</v>
       </c>
       <c r="E37" t="n">
-        <v>64.76107639412297</v>
+        <v>64.76107639412294</v>
       </c>
       <c r="F37" t="n">
-        <v>63.74816177048504</v>
+        <v>63.74816177048501</v>
       </c>
       <c r="G37" t="n">
-        <v>85.12006364061008</v>
+        <v>85.12006364061006</v>
       </c>
       <c r="H37" t="n">
-        <v>69.9027151898697</v>
+        <v>69.90271518986967</v>
       </c>
       <c r="I37" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707271</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75274388944557</v>
+        <v>41.75274388944553</v>
       </c>
       <c r="S37" t="n">
         <v>121.4653255556487</v>
@@ -3478,7 +3478,7 @@
         <v>141.1538500054793</v>
       </c>
       <c r="U37" t="n">
-        <v>204.5807960422955</v>
+        <v>204.5807960422954</v>
       </c>
       <c r="V37" t="n">
         <v>170.4647570713818</v>
@@ -3521,7 +3521,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I38" t="n">
-        <v>25.83694068257837</v>
+        <v>25.83694068257833</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.48630135977017</v>
+        <v>66.48630135977012</v>
       </c>
       <c r="T38" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U38" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V38" t="n">
         <v>246.0793722176887</v>
@@ -3600,7 +3600,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I39" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S39" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T39" t="n">
         <v>194.4048372882181</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949106</v>
       </c>
       <c r="C40" t="n">
-        <v>85.57393484618161</v>
+        <v>85.5739348461816</v>
       </c>
       <c r="D40" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576612</v>
       </c>
       <c r="E40" t="n">
-        <v>64.76107639412295</v>
+        <v>64.76107639412294</v>
       </c>
       <c r="F40" t="n">
-        <v>63.74816177048503</v>
+        <v>63.74816177048501</v>
       </c>
       <c r="G40" t="n">
         <v>85.12006364061007</v>
       </c>
       <c r="H40" t="n">
-        <v>69.90271518986968</v>
+        <v>69.90271518986967</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74957529707272</v>
+        <v>37.7495752970727</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75274388944555</v>
+        <v>41.75274388944553</v>
       </c>
       <c r="S40" t="n">
         <v>121.4653255556487</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.0609554110343</v>
+        <v>301.0609554110344</v>
       </c>
       <c r="C41" t="n">
         <v>283.6000055185614</v>
       </c>
       <c r="D41" t="n">
-        <v>273.0101553682367</v>
+        <v>273.0101553682368</v>
       </c>
       <c r="E41" t="n">
-        <v>300.2574838198155</v>
+        <v>300.2574838198156</v>
       </c>
       <c r="F41" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892653</v>
       </c>
       <c r="G41" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789685</v>
       </c>
       <c r="H41" t="n">
         <v>230.4495732405443</v>
@@ -3791,7 +3791,7 @@
         <v>66.48630135977018</v>
       </c>
       <c r="T41" t="n">
-        <v>129.731531129949</v>
+        <v>129.7315311299491</v>
       </c>
       <c r="U41" t="n">
         <v>169.4591025606927</v>
@@ -3803,7 +3803,7 @@
         <v>267.5680824649668</v>
       </c>
       <c r="X41" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260229</v>
       </c>
       <c r="Y41" t="n">
         <v>304.5650524036074</v>
@@ -3837,7 +3837,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I42" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S42" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T42" t="n">
         <v>194.4048372882181</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.15909392949109</v>
+        <v>98.15909392949112</v>
       </c>
       <c r="C43" t="n">
-        <v>85.57393484618163</v>
+        <v>85.57393484618166</v>
       </c>
       <c r="D43" t="n">
-        <v>66.94258676576615</v>
+        <v>66.94258676576618</v>
       </c>
       <c r="E43" t="n">
-        <v>64.76107639412297</v>
+        <v>64.76107639412299</v>
       </c>
       <c r="F43" t="n">
-        <v>63.74816177048504</v>
+        <v>63.74816177048507</v>
       </c>
       <c r="G43" t="n">
-        <v>85.12006364061008</v>
+        <v>85.12006364061011</v>
       </c>
       <c r="H43" t="n">
-        <v>69.9027151898697</v>
+        <v>69.90271518986972</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707277</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75274388944557</v>
+        <v>41.75274388944558</v>
       </c>
       <c r="S43" t="n">
         <v>121.4653255556487</v>
       </c>
       <c r="T43" t="n">
-        <v>141.1538500054793</v>
+        <v>141.1538500054794</v>
       </c>
       <c r="U43" t="n">
         <v>204.5807960422955</v>
@@ -3961,7 +3961,7 @@
         <v>204.8501120841448</v>
       </c>
       <c r="X43" t="n">
-        <v>144.0367691365909</v>
+        <v>144.036769136591</v>
       </c>
       <c r="Y43" t="n">
         <v>136.9117670996486</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.0609554110343</v>
+        <v>301.0609554110344</v>
       </c>
       <c r="C44" t="n">
         <v>283.6000055185614</v>
       </c>
       <c r="D44" t="n">
-        <v>273.0101553682367</v>
+        <v>273.0101553682368</v>
       </c>
       <c r="E44" t="n">
-        <v>300.2574838198155</v>
+        <v>300.2574838198156</v>
       </c>
       <c r="F44" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892653</v>
       </c>
       <c r="G44" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789685</v>
       </c>
       <c r="H44" t="n">
         <v>230.4495732405443</v>
@@ -4028,7 +4028,7 @@
         <v>66.48630135977018</v>
       </c>
       <c r="T44" t="n">
-        <v>129.731531129949</v>
+        <v>129.7315311299491</v>
       </c>
       <c r="U44" t="n">
         <v>169.4591025606927</v>
@@ -4040,7 +4040,7 @@
         <v>267.5680824649668</v>
       </c>
       <c r="X44" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260229</v>
       </c>
       <c r="Y44" t="n">
         <v>304.5650524036074</v>
@@ -4074,7 +4074,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I45" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467748998</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301462</v>
       </c>
       <c r="S45" t="n">
-        <v>145.1400371463127</v>
+        <v>145.1400371463126</v>
       </c>
       <c r="T45" t="n">
         <v>194.4048372882181</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.15909392949109</v>
+        <v>98.15909392949112</v>
       </c>
       <c r="C46" t="n">
-        <v>85.57393484618163</v>
+        <v>85.57393484618166</v>
       </c>
       <c r="D46" t="n">
-        <v>66.94258676576615</v>
+        <v>66.94258676576618</v>
       </c>
       <c r="E46" t="n">
-        <v>64.76107639412297</v>
+        <v>64.76107639412299</v>
       </c>
       <c r="F46" t="n">
-        <v>63.74816177048504</v>
+        <v>63.74816177048507</v>
       </c>
       <c r="G46" t="n">
-        <v>85.12006364061008</v>
+        <v>85.12006364061013</v>
       </c>
       <c r="H46" t="n">
-        <v>69.9027151898697</v>
+        <v>69.90271518986972</v>
       </c>
       <c r="I46" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707276</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75274388944557</v>
+        <v>41.75274388944558</v>
       </c>
       <c r="S46" t="n">
         <v>121.4653255556487</v>
       </c>
       <c r="T46" t="n">
-        <v>141.1538500054793</v>
+        <v>141.1538500054794</v>
       </c>
       <c r="U46" t="n">
         <v>204.5807960422955</v>
@@ -4198,7 +4198,7 @@
         <v>204.8501120841448</v>
       </c>
       <c r="X46" t="n">
-        <v>144.0367691365909</v>
+        <v>144.036769136591</v>
       </c>
       <c r="Y46" t="n">
         <v>136.9117670996486</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>843.5649989828479</v>
+        <v>1501.669086534472</v>
       </c>
       <c r="C11" t="n">
-        <v>843.5649989828479</v>
+        <v>1179.428999893576</v>
       </c>
       <c r="D11" t="n">
-        <v>532.0217306756131</v>
+        <v>867.8857315863411</v>
       </c>
       <c r="E11" t="n">
-        <v>532.0217306756131</v>
+        <v>528.8199092876125</v>
       </c>
       <c r="F11" t="n">
-        <v>532.0217306756131</v>
+        <v>164.5564347975211</v>
       </c>
       <c r="G11" t="n">
-        <v>161.944225286831</v>
+        <v>164.5564347975211</v>
       </c>
       <c r="H11" t="n">
-        <v>114.1661552973429</v>
+        <v>114.1661552973428</v>
       </c>
       <c r="I11" t="n">
-        <v>52.29280081400536</v>
+        <v>52.29280081400535</v>
       </c>
       <c r="J11" t="n">
-        <v>97.47145817970863</v>
+        <v>264.8771072000617</v>
       </c>
       <c r="K11" t="n">
-        <v>536.82503090357</v>
+        <v>704.2306799239232</v>
       </c>
       <c r="L11" t="n">
-        <v>720.6740133052424</v>
+        <v>888.0796623255958</v>
       </c>
       <c r="M11" t="n">
-        <v>1367.797423378559</v>
+        <v>1124.316516598034</v>
       </c>
       <c r="N11" t="n">
-        <v>1861.603674528781</v>
+        <v>1368.98973852946</v>
       </c>
       <c r="O11" t="n">
-        <v>2079.306398635448</v>
+        <v>1851.392966935571</v>
       </c>
       <c r="P11" t="n">
-        <v>2549.19035716077</v>
+        <v>2321.276925460893</v>
       </c>
       <c r="Q11" t="n">
-        <v>2614.640040700268</v>
+        <v>2596.918449753697</v>
       </c>
       <c r="R11" t="n">
-        <v>2614.640040700268</v>
+        <v>2614.640040700267</v>
       </c>
       <c r="S11" t="n">
         <v>2511.706725936939</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.889340698681</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.94309542937</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="V11" t="n">
-        <v>1853.602638385315</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="W11" t="n">
-        <v>1853.602638385315</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="X11" t="n">
-        <v>1526.85931042375</v>
+        <v>2184.963397975374</v>
       </c>
       <c r="Y11" t="n">
-        <v>1183.442408747454</v>
+        <v>1841.546496299078</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958.7704702275046</v>
+        <v>958.7704702275037</v>
       </c>
       <c r="C12" t="n">
-        <v>784.3174409463776</v>
+        <v>784.3174409463767</v>
       </c>
       <c r="D12" t="n">
-        <v>635.3830312851264</v>
+        <v>635.3830312851255</v>
       </c>
       <c r="E12" t="n">
-        <v>476.1455762796709</v>
+        <v>476.14557627967</v>
       </c>
       <c r="F12" t="n">
-        <v>329.6110183065559</v>
+        <v>329.611018306555</v>
       </c>
       <c r="G12" t="n">
-        <v>192.3236318936952</v>
+        <v>192.3236318936947</v>
       </c>
       <c r="H12" t="n">
-        <v>92.89507826601546</v>
+        <v>92.89507826601545</v>
       </c>
       <c r="I12" t="n">
-        <v>52.29280081400536</v>
+        <v>52.29280081400535</v>
       </c>
       <c r="J12" t="n">
-        <v>60.3830526792378</v>
+        <v>185.2131776662426</v>
       </c>
       <c r="K12" t="n">
-        <v>414.1859910806555</v>
+        <v>539.0161160676604</v>
       </c>
       <c r="L12" t="n">
-        <v>584.1901581922309</v>
+        <v>709.0202831792359</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.313568265547</v>
+        <v>1356.143693252552</v>
       </c>
       <c r="N12" t="n">
-        <v>1469.228953950465</v>
+        <v>1594.05907893747</v>
       </c>
       <c r="O12" t="n">
-        <v>2054.578952194032</v>
+        <v>1911.866497236369</v>
       </c>
       <c r="P12" t="n">
         <v>2364.658408516852</v>
       </c>
       <c r="Q12" t="n">
-        <v>2614.640040700268</v>
+        <v>2614.640040700267</v>
       </c>
       <c r="R12" t="n">
-        <v>2603.090346990152</v>
+        <v>2603.090346990151</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.484248862564</v>
+        <v>2456.484248862563</v>
       </c>
       <c r="T12" t="n">
-        <v>2260.115726349212</v>
+        <v>2260.115726349211</v>
       </c>
       <c r="U12" t="n">
-        <v>2031.987071178004</v>
+        <v>2031.987071178003</v>
       </c>
       <c r="V12" t="n">
-        <v>1796.834962946261</v>
+        <v>1796.83496294626</v>
       </c>
       <c r="W12" t="n">
-        <v>1542.597606218059</v>
+        <v>1542.597606218058</v>
       </c>
       <c r="X12" t="n">
-        <v>1334.746106012527</v>
+        <v>1334.746106012526</v>
       </c>
       <c r="Y12" t="n">
-        <v>1126.985807247573</v>
+        <v>1126.985807247572</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>455.5293175265091</v>
+        <v>476.5524068720226</v>
       </c>
       <c r="C13" t="n">
-        <v>455.5293175265091</v>
+        <v>354.3386542436313</v>
       </c>
       <c r="D13" t="n">
-        <v>455.5293175265091</v>
+        <v>354.3386542436313</v>
       </c>
       <c r="E13" t="n">
-        <v>354.3386542436316</v>
+        <v>354.3386542436313</v>
       </c>
       <c r="F13" t="n">
-        <v>354.3386542436316</v>
+        <v>354.3386542436313</v>
       </c>
       <c r="G13" t="n">
-        <v>232.5833573784438</v>
+        <v>232.5833573784436</v>
       </c>
       <c r="H13" t="n">
-        <v>126.1991195544079</v>
+        <v>126.1991195544078</v>
       </c>
       <c r="I13" t="n">
-        <v>52.29280081400536</v>
+        <v>52.29280081400535</v>
       </c>
       <c r="J13" t="n">
-        <v>89.51354280696866</v>
+        <v>89.51354280696884</v>
       </c>
       <c r="K13" t="n">
-        <v>251.0567489464903</v>
+        <v>251.0567489464906</v>
       </c>
       <c r="L13" t="n">
-        <v>500.4966927854845</v>
+        <v>500.4966927854848</v>
       </c>
       <c r="M13" t="n">
-        <v>771.3959835616729</v>
+        <v>771.3959835616733</v>
       </c>
       <c r="N13" t="n">
-        <v>1042.37735807374</v>
+        <v>1042.377358073741</v>
       </c>
       <c r="O13" t="n">
         <v>1280.151947797892</v>
@@ -5218,31 +5218,31 @@
         <v>1466.69763147612</v>
       </c>
       <c r="Q13" t="n">
-        <v>1526.505307245896</v>
+        <v>1526.505307245897</v>
       </c>
       <c r="R13" t="n">
-        <v>1448.555383866733</v>
+        <v>1448.555383866734</v>
       </c>
       <c r="S13" t="n">
-        <v>1290.087701228779</v>
+        <v>1290.08770122878</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.732620156652</v>
+        <v>1169.631907847375</v>
       </c>
       <c r="U13" t="n">
-        <v>1053.561326706471</v>
+        <v>927.2092045158389</v>
       </c>
       <c r="V13" t="n">
-        <v>1053.561326706471</v>
+        <v>719.2471466094677</v>
       </c>
       <c r="W13" t="n">
-        <v>810.8665869690255</v>
+        <v>476.5524068720226</v>
       </c>
       <c r="X13" t="n">
-        <v>629.5994663705237</v>
+        <v>476.5524068720226</v>
       </c>
       <c r="Y13" t="n">
-        <v>455.5293175265091</v>
+        <v>476.5524068720226</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1174.549388777892</v>
+        <v>1768.769405854589</v>
       </c>
       <c r="C14" t="n">
-        <v>852.3093021369966</v>
+        <v>1446.529319213692</v>
       </c>
       <c r="D14" t="n">
-        <v>765.5370542910032</v>
+        <v>1134.986050906457</v>
       </c>
       <c r="E14" t="n">
-        <v>765.5370542910032</v>
+        <v>795.920228607729</v>
       </c>
       <c r="F14" t="n">
-        <v>765.5370542910032</v>
+        <v>431.6567541176371</v>
       </c>
       <c r="G14" t="n">
         <v>395.4595489022212</v>
       </c>
       <c r="H14" t="n">
-        <v>126.9067675926557</v>
+        <v>126.9067675926556</v>
       </c>
       <c r="I14" t="n">
         <v>65.0334131093182</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2120704750215</v>
+        <v>277.6177194953746</v>
       </c>
       <c r="K14" t="n">
-        <v>549.5656431988828</v>
+        <v>716.971292219236</v>
       </c>
       <c r="L14" t="n">
-        <v>1146.899228005501</v>
+        <v>1314.304877025855</v>
       </c>
       <c r="M14" t="n">
-        <v>1828.154480435843</v>
+        <v>1550.541731298293</v>
       </c>
       <c r="N14" t="n">
-        <v>2072.827702367269</v>
+        <v>1893.728678144429</v>
       </c>
       <c r="O14" t="n">
-        <v>2667.522605924054</v>
+        <v>2488.423581701214</v>
       </c>
       <c r="P14" t="n">
-        <v>3137.406564449376</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q14" t="n">
         <v>3233.94906451934</v>
@@ -5303,25 +5303,25 @@
         <v>3251.67065546591</v>
       </c>
       <c r="S14" t="n">
-        <v>3148.737340702581</v>
+        <v>3251.67065546591</v>
       </c>
       <c r="T14" t="n">
-        <v>2981.919955464324</v>
+        <v>3084.853270227653</v>
       </c>
       <c r="U14" t="n">
-        <v>2774.973710195012</v>
+        <v>3084.853270227653</v>
       </c>
       <c r="V14" t="n">
-        <v>2490.633253150957</v>
+        <v>3084.853270227653</v>
       </c>
       <c r="W14" t="n">
-        <v>2184.587028180359</v>
+        <v>2778.807045257055</v>
       </c>
       <c r="X14" t="n">
-        <v>1857.843700218795</v>
+        <v>2452.063717295491</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.426798542499</v>
+        <v>2108.646815619195</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E15" t="n">
-        <v>488.8861885749842</v>
+        <v>488.8861885749841</v>
       </c>
       <c r="F15" t="n">
         <v>342.3516306018691</v>
@@ -5355,25 +5355,25 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J15" t="n">
-        <v>197.9537899615554</v>
+        <v>197.9537899615555</v>
       </c>
       <c r="K15" t="n">
-        <v>551.7567283629731</v>
+        <v>551.7567283629733</v>
       </c>
       <c r="L15" t="n">
-        <v>945.8046556897818</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M15" t="n">
-        <v>1624.596381415226</v>
+        <v>1306.636549937917</v>
       </c>
       <c r="N15" t="n">
-        <v>1862.511767100143</v>
+        <v>1544.551935622835</v>
       </c>
       <c r="O15" t="n">
-        <v>2447.861765343711</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P15" t="n">
-        <v>2585.375535670656</v>
+        <v>2377.399020812165</v>
       </c>
       <c r="Q15" t="n">
         <v>2627.380652995581</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.0892378277284</v>
+        <v>565.4474183090007</v>
       </c>
       <c r="C16" t="n">
-        <v>364.0892378277284</v>
+        <v>565.4474183090007</v>
       </c>
       <c r="D16" t="n">
-        <v>260.6950287149083</v>
+        <v>462.0532091961806</v>
       </c>
       <c r="E16" t="n">
-        <v>260.6950287149083</v>
+        <v>360.8625459133032</v>
       </c>
       <c r="F16" t="n">
-        <v>260.6950287149083</v>
+        <v>260.6950287149084</v>
       </c>
       <c r="G16" t="n">
         <v>138.9397318497207</v>
@@ -5437,13 +5437,13 @@
         <v>102.2541551022816</v>
       </c>
       <c r="K16" t="n">
-        <v>263.7973612418035</v>
+        <v>263.7973612418034</v>
       </c>
       <c r="L16" t="n">
         <v>513.2373050807978</v>
       </c>
       <c r="M16" t="n">
-        <v>784.1365958569861</v>
+        <v>784.1365958569862</v>
       </c>
       <c r="N16" t="n">
         <v>1055.117970369054</v>
@@ -5452,34 +5452,34 @@
         <v>1292.892560093205</v>
       </c>
       <c r="P16" t="n">
-        <v>1479.438243771433</v>
+        <v>1479.438243771434</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.24591954121</v>
+        <v>1539.245919541209</v>
       </c>
       <c r="R16" t="n">
-        <v>1461.295996162047</v>
+        <v>1539.245919541209</v>
       </c>
       <c r="S16" t="n">
-        <v>1302.828313524093</v>
+        <v>1432.597068128368</v>
       </c>
       <c r="T16" t="n">
-        <v>1302.828313524093</v>
+        <v>1432.597068128368</v>
       </c>
       <c r="U16" t="n">
-        <v>1060.405610192556</v>
+        <v>1190.174364796831</v>
       </c>
       <c r="V16" t="n">
-        <v>852.443552286185</v>
+        <v>982.21230689046</v>
       </c>
       <c r="W16" t="n">
-        <v>673.0854212024668</v>
+        <v>739.5175671530151</v>
       </c>
       <c r="X16" t="n">
-        <v>673.0854212024668</v>
+        <v>739.5175671530151</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.0152723584524</v>
+        <v>565.4474183090007</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J17" t="n">
-        <v>277.6177194953745</v>
+        <v>277.6177194953746</v>
       </c>
       <c r="K17" t="n">
-        <v>716.9712922192358</v>
+        <v>716.971292219236</v>
       </c>
       <c r="L17" t="n">
-        <v>1314.304877025854</v>
+        <v>1314.304877025855</v>
       </c>
       <c r="M17" t="n">
-        <v>1593.074180495257</v>
+        <v>1550.541731298293</v>
       </c>
       <c r="N17" t="n">
-        <v>2270.720857594547</v>
+        <v>1893.728678144429</v>
       </c>
       <c r="O17" t="n">
-        <v>2488.423581701215</v>
+        <v>2488.423581701214</v>
       </c>
       <c r="P17" t="n">
         <v>2958.307540226536</v>
@@ -5549,10 +5549,10 @@
         <v>2960.593773645025</v>
       </c>
       <c r="V17" t="n">
-        <v>2738.126671084308</v>
+        <v>2738.126671084307</v>
       </c>
       <c r="W17" t="n">
-        <v>2493.953800597047</v>
+        <v>2493.953800597046</v>
       </c>
       <c r="X17" t="n">
         <v>2229.083827118819</v>
@@ -5577,7 +5577,7 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E18" t="n">
-        <v>488.8861885749842</v>
+        <v>488.8861885749841</v>
       </c>
       <c r="F18" t="n">
         <v>342.3516306018691</v>
@@ -5592,25 +5592,25 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J18" t="n">
-        <v>73.12366497455065</v>
+        <v>197.9537899615555</v>
       </c>
       <c r="K18" t="n">
-        <v>165.1060187335156</v>
+        <v>551.7567283629733</v>
       </c>
       <c r="L18" t="n">
-        <v>702.2421276955156</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M18" t="n">
-        <v>919.9858403084595</v>
+        <v>1491.265421687159</v>
       </c>
       <c r="N18" t="n">
-        <v>1547.233626146605</v>
+        <v>1729.180807372077</v>
       </c>
       <c r="O18" t="n">
-        <v>2132.583624390173</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P18" t="n">
-        <v>2585.375535670656</v>
+        <v>2377.399020812165</v>
       </c>
       <c r="Q18" t="n">
         <v>2627.380652995581</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.9319273780652</v>
+        <v>360.9319273780653</v>
       </c>
       <c r="C19" t="n">
-        <v>300.5915292330114</v>
+        <v>300.5915292330116</v>
       </c>
       <c r="D19" t="n">
-        <v>259.0706746035289</v>
+        <v>259.070674603529</v>
       </c>
       <c r="E19" t="n">
-        <v>219.7533658039889</v>
+        <v>219.753365803989</v>
       </c>
       <c r="F19" t="n">
-        <v>181.4592030889317</v>
+        <v>181.4592030889318</v>
       </c>
       <c r="G19" t="n">
         <v>121.5772607070815</v>
       </c>
       <c r="H19" t="n">
-        <v>77.06637736638319</v>
+        <v>77.06637736638321</v>
       </c>
       <c r="I19" t="n">
         <v>65.0334131093182</v>
       </c>
       <c r="J19" t="n">
-        <v>65.0334131093182</v>
+        <v>72.87458485147428</v>
       </c>
       <c r="K19" t="n">
-        <v>180.7839653122847</v>
+        <v>188.6251370544408</v>
       </c>
       <c r="L19" t="n">
-        <v>490.8659838803981</v>
+        <v>498.7071556225542</v>
       </c>
       <c r="M19" t="n">
-        <v>715.9726207200313</v>
+        <v>830.2485211278617</v>
       </c>
       <c r="N19" t="n">
-        <v>941.1613412955437</v>
+        <v>1055.437241703374</v>
       </c>
       <c r="O19" t="n">
-        <v>1239.578005748814</v>
+        <v>1247.41917749097</v>
       </c>
       <c r="P19" t="n">
-        <v>1380.331035490487</v>
+        <v>1388.172207232643</v>
       </c>
       <c r="Q19" t="n">
         <v>1402.187229065864</v>
       </c>
       <c r="R19" t="n">
-        <v>1386.110660170038</v>
+        <v>1386.110660170039</v>
       </c>
       <c r="S19" t="n">
         <v>1289.516332015422</v>
@@ -5704,19 +5704,19 @@
         <v>1173.034605426633</v>
       </c>
       <c r="U19" t="n">
-        <v>992.4852565784341</v>
+        <v>992.4852565784344</v>
       </c>
       <c r="V19" t="n">
-        <v>846.3965531554004</v>
+        <v>846.3965531554006</v>
       </c>
       <c r="W19" t="n">
-        <v>665.575167901293</v>
+        <v>665.5751679012932</v>
       </c>
       <c r="X19" t="n">
-        <v>546.1814017861287</v>
+        <v>546.181401786129</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.9846074254518</v>
+        <v>433.9846074254519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1669.536224644593</v>
+        <v>1669.536224644592</v>
       </c>
       <c r="C20" t="n">
         <v>1409.169492487034</v>
@@ -5735,10 +5735,10 @@
         <v>1159.499578663137</v>
       </c>
       <c r="E20" t="n">
-        <v>882.3071108477459</v>
+        <v>882.3071108477457</v>
       </c>
       <c r="F20" t="n">
-        <v>579.9169908409915</v>
+        <v>579.9169908409913</v>
       </c>
       <c r="G20" t="n">
         <v>271.7128399355464</v>
@@ -5750,19 +5750,19 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2120704750215</v>
+        <v>110.2120704750216</v>
       </c>
       <c r="K20" t="n">
-        <v>400.2331529126535</v>
+        <v>400.2331529126525</v>
       </c>
       <c r="L20" t="n">
-        <v>997.5667377192719</v>
+        <v>997.566737719271</v>
       </c>
       <c r="M20" t="n">
-        <v>1233.80359199171</v>
+        <v>1233.803591991709</v>
       </c>
       <c r="N20" t="n">
-        <v>1911.450269091</v>
+        <v>1911.450269090999</v>
       </c>
       <c r="O20" t="n">
         <v>2506.145172647785</v>
@@ -5792,10 +5792,10 @@
         <v>2493.953800597047</v>
       </c>
       <c r="X20" t="n">
-        <v>2229.08382711882</v>
+        <v>2229.083827118819</v>
       </c>
       <c r="Y20" t="n">
-        <v>1947.540279925862</v>
+        <v>1947.540279925861</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E21" t="n">
-        <v>488.8861885749842</v>
+        <v>488.8861885749841</v>
       </c>
       <c r="F21" t="n">
         <v>342.3516306018691</v>
@@ -5829,19 +5829,19 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J21" t="n">
-        <v>197.9537899615554</v>
+        <v>197.9537899615555</v>
       </c>
       <c r="K21" t="n">
-        <v>551.7567283629731</v>
+        <v>551.7567283629733</v>
       </c>
       <c r="L21" t="n">
-        <v>721.7608954745485</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M21" t="n">
-        <v>1400.552621199992</v>
+        <v>1306.636549937917</v>
       </c>
       <c r="N21" t="n">
-        <v>1638.46800688491</v>
+        <v>1544.551935622835</v>
       </c>
       <c r="O21" t="n">
         <v>1924.607109531682</v>
@@ -5902,7 +5902,7 @@
         <v>121.5772607070815</v>
       </c>
       <c r="H22" t="n">
-        <v>77.06637736638319</v>
+        <v>77.06637736638318</v>
       </c>
       <c r="I22" t="n">
         <v>65.0334131093182</v>
@@ -5911,22 +5911,22 @@
         <v>65.0334131093182</v>
       </c>
       <c r="K22" t="n">
-        <v>287.218693977959</v>
+        <v>180.7839653122847</v>
       </c>
       <c r="L22" t="n">
-        <v>490.8659838803981</v>
+        <v>384.4312552147238</v>
       </c>
       <c r="M22" t="n">
-        <v>715.9726207200313</v>
+        <v>715.9726207200314</v>
       </c>
       <c r="N22" t="n">
-        <v>949.0025130376998</v>
+        <v>1047.596069961218</v>
       </c>
       <c r="O22" t="n">
-        <v>1140.984448825296</v>
+        <v>1239.578005748814</v>
       </c>
       <c r="P22" t="n">
-        <v>1281.737478566969</v>
+        <v>1388.172207232643</v>
       </c>
       <c r="Q22" t="n">
         <v>1402.187229065864</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1669.536224644591</v>
+        <v>1669.536224644592</v>
       </c>
       <c r="C23" t="n">
         <v>1409.169492487033</v>
       </c>
       <c r="D23" t="n">
-        <v>1159.499578663135</v>
+        <v>1159.499578663136</v>
       </c>
       <c r="E23" t="n">
-        <v>882.3071108477448</v>
+        <v>882.3071108477452</v>
       </c>
       <c r="F23" t="n">
         <v>579.9169908409908</v>
@@ -5987,22 +5987,22 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J23" t="n">
-        <v>277.6177194953745</v>
+        <v>277.6177194953746</v>
       </c>
       <c r="K23" t="n">
-        <v>396.0673337737827</v>
+        <v>716.971292219236</v>
       </c>
       <c r="L23" t="n">
-        <v>993.4009185804011</v>
+        <v>1314.304877025855</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.656171010743</v>
+        <v>1550.541731298293</v>
       </c>
       <c r="N23" t="n">
-        <v>1919.329392942169</v>
+        <v>2228.188408397583</v>
       </c>
       <c r="O23" t="n">
-        <v>2514.024296498955</v>
+        <v>2488.423581701214</v>
       </c>
       <c r="P23" t="n">
         <v>2958.307540226536</v>
@@ -6014,10 +6014,10 @@
         <v>3251.67065546591</v>
       </c>
       <c r="S23" t="n">
-        <v>3210.610695185919</v>
+        <v>3210.610695185918</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.666664430999</v>
+        <v>3105.666664430998</v>
       </c>
       <c r="U23" t="n">
         <v>2960.593773645025</v>
@@ -6026,13 +6026,13 @@
         <v>2738.126671084307</v>
       </c>
       <c r="W23" t="n">
-        <v>2493.953800597045</v>
+        <v>2493.953800597046</v>
       </c>
       <c r="X23" t="n">
         <v>2229.083827118819</v>
       </c>
       <c r="Y23" t="n">
-        <v>1947.54027992586</v>
+        <v>1947.540279925861</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E24" t="n">
-        <v>488.8861885749842</v>
+        <v>488.8861885749841</v>
       </c>
       <c r="F24" t="n">
         <v>342.3516306018691</v>
@@ -6066,22 +6066,22 @@
         <v>65.0334131093182</v>
       </c>
       <c r="J24" t="n">
-        <v>197.9537899615554</v>
+        <v>197.9537899615555</v>
       </c>
       <c r="K24" t="n">
-        <v>551.7567283629731</v>
+        <v>551.7567283629733</v>
       </c>
       <c r="L24" t="n">
         <v>1088.892837324973</v>
       </c>
       <c r="M24" t="n">
-        <v>1416.619866556735</v>
+        <v>1306.636549937917</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.535252241652</v>
+        <v>1544.551935622835</v>
       </c>
       <c r="O24" t="n">
-        <v>2239.88525048522</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P24" t="n">
         <v>2377.399020812165</v>
@@ -6139,7 +6139,7 @@
         <v>121.5772607070815</v>
       </c>
       <c r="H25" t="n">
-        <v>77.06637736638319</v>
+        <v>77.06637736638318</v>
       </c>
       <c r="I25" t="n">
         <v>65.0334131093182</v>
@@ -6148,16 +6148,16 @@
         <v>65.0334131093182</v>
       </c>
       <c r="K25" t="n">
-        <v>180.7839653122847</v>
+        <v>287.218693977959</v>
       </c>
       <c r="L25" t="n">
-        <v>490.8659838803981</v>
+        <v>597.3007125460724</v>
       </c>
       <c r="M25" t="n">
-        <v>822.4073493857056</v>
+        <v>830.2485211278617</v>
       </c>
       <c r="N25" t="n">
-        <v>1047.596069961218</v>
+        <v>1055.437241703374</v>
       </c>
       <c r="O25" t="n">
         <v>1247.41917749097</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1860.210822961702</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C26" t="n">
-        <v>1573.746170922752</v>
+        <v>1573.746170922753</v>
       </c>
       <c r="D26" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E26" t="n">
-        <v>994.6879495206786</v>
+        <v>994.6879495206794</v>
       </c>
       <c r="F26" t="n">
-        <v>666.1999096325319</v>
+        <v>666.1999096325326</v>
       </c>
       <c r="G26" t="n">
-        <v>331.8978388456962</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H26" t="n">
-        <v>99.12049213807546</v>
+        <v>99.12049213807549</v>
       </c>
       <c r="I26" t="n">
         <v>73.02257225668319</v>
       </c>
       <c r="J26" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K26" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L26" t="n">
-        <v>934.284705983046</v>
+        <v>1322.29403617322</v>
       </c>
       <c r="M26" t="n">
-        <v>1615.539958413388</v>
+        <v>2003.549288603562</v>
       </c>
       <c r="N26" t="n">
         <v>2293.186635512678</v>
       </c>
       <c r="O26" t="n">
-        <v>2887.881539069464</v>
+        <v>2887.881539069463</v>
       </c>
       <c r="P26" t="n">
         <v>3357.765497594785</v>
@@ -6251,25 +6251,25 @@
         <v>3651.128612834159</v>
       </c>
       <c r="S26" t="n">
-        <v>3583.970732672775</v>
+        <v>3583.970732672776</v>
       </c>
       <c r="T26" t="n">
         <v>3452.928782036463</v>
       </c>
       <c r="U26" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V26" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W26" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X26" t="n">
-        <v>2471.954265198714</v>
+        <v>2471.954265198716</v>
       </c>
       <c r="Y26" t="n">
-        <v>2164.312798124363</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>205.9429491089204</v>
       </c>
       <c r="K27" t="n">
-        <v>297.9253028678853</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L27" t="n">
-        <v>835.0614118298853</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M27" t="n">
-        <v>1052.805124442829</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N27" t="n">
-        <v>1347.24627043548</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O27" t="n">
         <v>1932.596268679048</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.6065256951764</v>
+        <v>551.6065256951763</v>
       </c>
       <c r="C28" t="n">
-        <v>465.1682076687303</v>
+        <v>465.1682076687301</v>
       </c>
       <c r="D28" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578552</v>
       </c>
       <c r="E28" t="n">
-        <v>332.1342044769232</v>
+        <v>332.1342044769229</v>
       </c>
       <c r="F28" t="n">
-        <v>267.7421218804737</v>
+        <v>267.7421218804734</v>
       </c>
       <c r="G28" t="n">
-        <v>181.7622596172312</v>
+        <v>181.7622596172309</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951403</v>
       </c>
       <c r="I28" t="n">
         <v>73.02257225668319</v>
       </c>
       <c r="J28" t="n">
-        <v>145.3068177030128</v>
+        <v>145.306817703013</v>
       </c>
       <c r="K28" t="n">
-        <v>341.9135272959011</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L28" t="n">
-        <v>626.4169745882618</v>
+        <v>626.416974588262</v>
       </c>
       <c r="M28" t="n">
         <v>932.3797688178167</v>
@@ -6427,7 +6427,7 @@
         <v>789.0518398660245</v>
       </c>
       <c r="Y28" t="n">
-        <v>650.7571256239553</v>
+        <v>650.7571256239552</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1860.210822961703</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C29" t="n">
-        <v>1573.746170922752</v>
+        <v>1573.746170922754</v>
       </c>
       <c r="D29" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217464</v>
       </c>
       <c r="E29" t="n">
-        <v>994.687949520679</v>
+        <v>994.6879495206804</v>
       </c>
       <c r="F29" t="n">
-        <v>666.1999096325322</v>
+        <v>666.1999096325336</v>
       </c>
       <c r="G29" t="n">
-        <v>331.8978388456953</v>
+        <v>331.8978388456967</v>
       </c>
       <c r="H29" t="n">
-        <v>99.12049213807559</v>
+        <v>99.12049213807555</v>
       </c>
       <c r="I29" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J29" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K29" t="n">
-        <v>655.5318422661963</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L29" t="n">
-        <v>1252.865427072815</v>
+        <v>1322.29403617322</v>
       </c>
       <c r="M29" t="n">
-        <v>1934.120679503157</v>
+        <v>1615.539958413388</v>
       </c>
       <c r="N29" t="n">
-        <v>2611.767356602447</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O29" t="n">
-        <v>3206.462260159232</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P29" t="n">
         <v>3357.765497594786</v>
@@ -6494,19 +6494,19 @@
         <v>3452.928782036464</v>
       </c>
       <c r="U29" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369099</v>
       </c>
       <c r="V29" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926989</v>
       </c>
       <c r="W29" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558336</v>
       </c>
       <c r="X29" t="n">
-        <v>2471.954265198715</v>
+        <v>2471.954265198717</v>
       </c>
       <c r="Y29" t="n">
-        <v>2164.312798124364</v>
+        <v>2164.312798124366</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J30" t="n">
-        <v>205.9429491089204</v>
+        <v>205.9429491089205</v>
       </c>
       <c r="K30" t="n">
-        <v>297.9253028678853</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L30" t="n">
-        <v>835.0614118298853</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M30" t="n">
-        <v>1052.805124442829</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.169966519442</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O30" t="n">
         <v>1932.596268679048</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.6065256951748</v>
+        <v>551.6065256951767</v>
       </c>
       <c r="C31" t="n">
-        <v>465.1682076687286</v>
+        <v>465.1682076687306</v>
       </c>
       <c r="D31" t="n">
-        <v>397.5494331578536</v>
+        <v>397.5494331578557</v>
       </c>
       <c r="E31" t="n">
-        <v>332.1342044769213</v>
+        <v>332.1342044769233</v>
       </c>
       <c r="F31" t="n">
-        <v>267.7421218804717</v>
+        <v>267.7421218804737</v>
       </c>
       <c r="G31" t="n">
-        <v>181.7622596172291</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1534563951383</v>
+        <v>111.1534563951406</v>
       </c>
       <c r="I31" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J31" t="n">
-        <v>145.3068177030129</v>
+        <v>145.306817703013</v>
       </c>
       <c r="K31" t="n">
-        <v>341.9135272959011</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L31" t="n">
-        <v>626.4169745882617</v>
+        <v>626.4169745882618</v>
       </c>
       <c r="M31" t="n">
-        <v>932.3797688178165</v>
+        <v>932.3797688178169</v>
       </c>
       <c r="N31" t="n">
         <v>1238.424646783251</v>
@@ -6640,7 +6640,7 @@
         <v>1732.871927092363</v>
       </c>
       <c r="Q31" t="n">
-        <v>1827.743106315505</v>
+        <v>1827.743106315506</v>
       </c>
       <c r="R31" t="n">
         <v>1785.568617538288</v>
@@ -6649,7 +6649,7 @@
         <v>1662.876369502279</v>
       </c>
       <c r="T31" t="n">
-        <v>1520.296723032097</v>
+        <v>1520.296723032098</v>
       </c>
       <c r="U31" t="n">
         <v>1313.649454302506</v>
@@ -6658,13 +6658,13 @@
         <v>1141.46283099808</v>
       </c>
       <c r="W31" t="n">
-        <v>934.5435258625801</v>
+        <v>934.5435258625804</v>
       </c>
       <c r="X31" t="n">
-        <v>789.0518398660234</v>
+        <v>789.0518398660238</v>
       </c>
       <c r="Y31" t="n">
-        <v>650.7571256239538</v>
+        <v>650.7571256239557</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961702</v>
       </c>
       <c r="C32" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922751</v>
       </c>
       <c r="D32" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E32" t="n">
-        <v>994.68794952068</v>
+        <v>994.6879495206783</v>
       </c>
       <c r="F32" t="n">
-        <v>666.1999096325333</v>
+        <v>666.1999096325317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.8978388456965</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H32" t="n">
-        <v>99.12049213807552</v>
+        <v>99.12049213807549</v>
       </c>
       <c r="I32" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J32" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K32" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L32" t="n">
-        <v>1322.294036173219</v>
+        <v>1322.29403617322</v>
       </c>
       <c r="M32" t="n">
-        <v>2003.549288603561</v>
+        <v>1615.539958413388</v>
       </c>
       <c r="N32" t="n">
         <v>2293.186635512679</v>
@@ -6725,25 +6725,25 @@
         <v>3651.12861283416</v>
       </c>
       <c r="S32" t="n">
-        <v>3583.970732672777</v>
+        <v>3583.970732672776</v>
       </c>
       <c r="T32" t="n">
         <v>3452.928782036464</v>
       </c>
       <c r="U32" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V32" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W32" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X32" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198714</v>
       </c>
       <c r="Y32" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124363</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J33" t="n">
-        <v>81.11282412191565</v>
+        <v>205.9429491089205</v>
       </c>
       <c r="K33" t="n">
-        <v>173.0951778808806</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L33" t="n">
-        <v>553.8904193674532</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M33" t="n">
-        <v>1232.682145092897</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N33" t="n">
-        <v>1945.146481377933</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O33" t="n">
-        <v>2140.572783537538</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P33" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.369812142946</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>551.6065256951761</v>
+        <v>551.6065256951765</v>
       </c>
       <c r="C34" t="n">
-        <v>465.16820766873</v>
+        <v>465.1682076687304</v>
       </c>
       <c r="D34" t="n">
-        <v>397.549433157855</v>
+        <v>397.5494331578555</v>
       </c>
       <c r="E34" t="n">
-        <v>332.1342044769228</v>
+        <v>332.1342044769232</v>
       </c>
       <c r="F34" t="n">
-        <v>267.7421218804732</v>
+        <v>267.7421218804737</v>
       </c>
       <c r="G34" t="n">
-        <v>181.7622596172307</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951402</v>
       </c>
       <c r="I34" t="n">
         <v>73.0225722566832</v>
@@ -6859,22 +6859,22 @@
         <v>145.3068177030131</v>
       </c>
       <c r="K34" t="n">
-        <v>341.9135272959015</v>
+        <v>341.9135272959013</v>
       </c>
       <c r="L34" t="n">
-        <v>626.4169745882622</v>
+        <v>626.4169745882621</v>
       </c>
       <c r="M34" t="n">
-        <v>932.3797688178169</v>
+        <v>932.379768817817</v>
       </c>
       <c r="N34" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O34" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P34" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092364</v>
       </c>
       <c r="Q34" t="n">
         <v>1827.743106315506</v>
@@ -6883,25 +6883,25 @@
         <v>1785.568617538288</v>
       </c>
       <c r="S34" t="n">
-        <v>1662.876369502279</v>
+        <v>1662.87636950228</v>
       </c>
       <c r="T34" t="n">
         <v>1520.296723032098</v>
       </c>
       <c r="U34" t="n">
-        <v>1313.649454302506</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V34" t="n">
-        <v>1141.46283099808</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W34" t="n">
-        <v>934.5435258625804</v>
+        <v>934.5435258625812</v>
       </c>
       <c r="X34" t="n">
-        <v>789.0518398660239</v>
+        <v>789.0518398660247</v>
       </c>
       <c r="Y34" t="n">
-        <v>650.7571256239549</v>
+        <v>650.7571256239554</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1573.746170922753</v>
       </c>
       <c r="D35" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217464</v>
       </c>
       <c r="E35" t="n">
-        <v>994.6879495206798</v>
+        <v>994.6879495206801</v>
       </c>
       <c r="F35" t="n">
-        <v>666.199909632533</v>
+        <v>666.1999096325335</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8978388456962</v>
+        <v>331.8978388456967</v>
       </c>
       <c r="H35" t="n">
-        <v>99.12049213807552</v>
+        <v>99.12049213807546</v>
       </c>
       <c r="I35" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J35" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K35" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L35" t="n">
-        <v>1322.294036173219</v>
+        <v>934.2847059830456</v>
       </c>
       <c r="M35" t="n">
-        <v>2003.549288603561</v>
+        <v>1615.539958413388</v>
       </c>
       <c r="N35" t="n">
-        <v>2503.378476265985</v>
+        <v>2293.186635512678</v>
       </c>
       <c r="O35" t="n">
-        <v>3098.07337982277</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P35" t="n">
-        <v>3567.957338348092</v>
+        <v>3357.765497594785</v>
       </c>
       <c r="Q35" t="n">
-        <v>3633.40702188759</v>
+        <v>3633.407021887589</v>
       </c>
       <c r="R35" t="n">
         <v>3651.12861283416</v>
@@ -6965,7 +6965,7 @@
         <v>3583.970732672776</v>
       </c>
       <c r="T35" t="n">
-        <v>3452.928782036463</v>
+        <v>3452.928782036464</v>
       </c>
       <c r="U35" t="n">
         <v>3281.757971369098</v>
@@ -7014,7 +7014,7 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J36" t="n">
-        <v>205.9429491089204</v>
+        <v>205.9429491089205</v>
       </c>
       <c r="K36" t="n">
         <v>559.7458875103382</v>
@@ -7023,10 +7023,10 @@
         <v>1096.881996472338</v>
       </c>
       <c r="M36" t="n">
-        <v>1499.254580834524</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.169966519442</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O36" t="n">
         <v>1932.596268679048</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>551.6065256951762</v>
+        <v>551.6065256951764</v>
       </c>
       <c r="C37" t="n">
-        <v>465.1682076687301</v>
+        <v>465.1682076687303</v>
       </c>
       <c r="D37" t="n">
-        <v>397.5494331578552</v>
+        <v>397.5494331578554</v>
       </c>
       <c r="E37" t="n">
-        <v>332.1342044769229</v>
+        <v>332.1342044769232</v>
       </c>
       <c r="F37" t="n">
-        <v>267.7421218804733</v>
+        <v>267.7421218804736</v>
       </c>
       <c r="G37" t="n">
-        <v>181.7622596172308</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H37" t="n">
         <v>111.1534563951405</v>
@@ -7096,19 +7096,19 @@
         <v>145.3068177030131</v>
       </c>
       <c r="K37" t="n">
-        <v>341.9135272959009</v>
+        <v>341.9135272959014</v>
       </c>
       <c r="L37" t="n">
-        <v>626.4169745882616</v>
+        <v>626.4169745882621</v>
       </c>
       <c r="M37" t="n">
-        <v>932.3797688178171</v>
+        <v>932.3797688178172</v>
       </c>
       <c r="N37" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O37" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P37" t="n">
         <v>1732.871927092363</v>
@@ -7132,13 +7132,13 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W37" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625811</v>
       </c>
       <c r="X37" t="n">
         <v>789.0518398660246</v>
       </c>
       <c r="Y37" t="n">
-        <v>650.7571256239551</v>
+        <v>650.7571256239553</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D38" t="n">
-        <v>1297.978337217464</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E38" t="n">
-        <v>994.6879495206801</v>
+        <v>994.6879495206792</v>
       </c>
       <c r="F38" t="n">
-        <v>666.1999096325335</v>
+        <v>666.1999096325326</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8978388456967</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H38" t="n">
-        <v>99.12049213807551</v>
+        <v>99.12049213807546</v>
       </c>
       <c r="I38" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J38" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K38" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L38" t="n">
-        <v>1322.294036173219</v>
+        <v>1322.29403617322</v>
       </c>
       <c r="M38" t="n">
-        <v>1615.539958413389</v>
+        <v>1615.539958413388</v>
       </c>
       <c r="N38" t="n">
-        <v>2293.186635512679</v>
+        <v>2293.186635512678</v>
       </c>
       <c r="O38" t="n">
         <v>2887.881539069464</v>
       </c>
       <c r="P38" t="n">
-        <v>3357.765497594786</v>
+        <v>3357.765497594785</v>
       </c>
       <c r="Q38" t="n">
-        <v>3633.40702188759</v>
+        <v>3633.407021887589</v>
       </c>
       <c r="R38" t="n">
         <v>3651.12861283416</v>
       </c>
       <c r="S38" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672775</v>
       </c>
       <c r="T38" t="n">
-        <v>3452.928782036464</v>
+        <v>3452.928782036463</v>
       </c>
       <c r="U38" t="n">
         <v>3281.757971369098</v>
@@ -7214,10 +7214,10 @@
         <v>2762.922158558335</v>
       </c>
       <c r="X38" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198715</v>
       </c>
       <c r="Y38" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J39" t="n">
-        <v>81.11282412191565</v>
+        <v>205.9429491089205</v>
       </c>
       <c r="K39" t="n">
-        <v>173.0951778808806</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2312868428805</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M39" t="n">
-        <v>927.9749994558244</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.43933574086</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O39" t="n">
-        <v>2225.789333984428</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P39" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.369812142946</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2374.992032213831</v>
+        <v>551.6065256951763</v>
       </c>
       <c r="C40" t="n">
-        <v>2288.553714187385</v>
+        <v>465.1682076687302</v>
       </c>
       <c r="D40" t="n">
-        <v>2220.93493967651</v>
+        <v>397.5494331578553</v>
       </c>
       <c r="E40" t="n">
-        <v>2155.519710995577</v>
+        <v>332.1342044769231</v>
       </c>
       <c r="F40" t="n">
-        <v>2091.127628399128</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G40" t="n">
-        <v>2005.147766135885</v>
+        <v>181.7622596172311</v>
       </c>
       <c r="H40" t="n">
-        <v>1934.538962913795</v>
+        <v>111.1534563951405</v>
       </c>
       <c r="I40" t="n">
-        <v>1896.408078775337</v>
+        <v>73.0225722566832</v>
       </c>
       <c r="J40" t="n">
-        <v>1968.692324221667</v>
+        <v>145.3068177030131</v>
       </c>
       <c r="K40" t="n">
-        <v>2165.299033814556</v>
+        <v>341.9135272959014</v>
       </c>
       <c r="L40" t="n">
-        <v>2449.802481106916</v>
+        <v>626.4169745882622</v>
       </c>
       <c r="M40" t="n">
-        <v>2755.765275336471</v>
+        <v>932.3797688178172</v>
       </c>
       <c r="N40" t="n">
-        <v>3061.810153301905</v>
+        <v>1238.424646783251</v>
       </c>
       <c r="O40" t="n">
-        <v>3334.648246479423</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P40" t="n">
-        <v>3556.257433611018</v>
+        <v>1732.871927092363</v>
       </c>
       <c r="Q40" t="n">
-        <v>3651.12861283416</v>
+        <v>1827.743106315506</v>
       </c>
       <c r="R40" t="n">
-        <v>3608.954124056942</v>
+        <v>1785.568617538288</v>
       </c>
       <c r="S40" t="n">
-        <v>3486.261876020933</v>
+        <v>1662.876369502279</v>
       </c>
       <c r="T40" t="n">
-        <v>3343.682229550752</v>
+        <v>1520.296723032098</v>
       </c>
       <c r="U40" t="n">
-        <v>3137.034960821161</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V40" t="n">
-        <v>2964.848337516735</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W40" t="n">
-        <v>2757.929032381235</v>
+        <v>934.543525862581</v>
       </c>
       <c r="X40" t="n">
-        <v>2612.437346384679</v>
+        <v>789.0518398660245</v>
       </c>
       <c r="Y40" t="n">
-        <v>2474.14263214261</v>
+        <v>650.7571256239552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1860.210822961702</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C41" t="n">
-        <v>1573.746170922751</v>
+        <v>1573.746170922753</v>
       </c>
       <c r="D41" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E41" t="n">
-        <v>994.6879495206783</v>
+        <v>994.6879495206798</v>
       </c>
       <c r="F41" t="n">
-        <v>666.1999096325317</v>
+        <v>666.199909632533</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8978388456958</v>
+        <v>331.8978388456962</v>
       </c>
       <c r="H41" t="n">
-        <v>99.12049213807551</v>
+        <v>99.12049213807553</v>
       </c>
       <c r="I41" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668322</v>
       </c>
       <c r="J41" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K41" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L41" t="n">
-        <v>1322.294036173219</v>
+        <v>1322.29403617322</v>
       </c>
       <c r="M41" t="n">
-        <v>1633.261549359958</v>
+        <v>1615.539958413389</v>
       </c>
       <c r="N41" t="n">
-        <v>2310.908226459248</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O41" t="n">
-        <v>2905.603130016034</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P41" t="n">
-        <v>3375.487088541356</v>
+        <v>3357.765497594786</v>
       </c>
       <c r="Q41" t="n">
-        <v>3651.128612834159</v>
+        <v>3633.40702188759</v>
       </c>
       <c r="R41" t="n">
-        <v>3651.128612834159</v>
+        <v>3651.128612834161</v>
       </c>
       <c r="S41" t="n">
-        <v>3583.970732672775</v>
+        <v>3583.970732672777</v>
       </c>
       <c r="T41" t="n">
-        <v>3452.928782036463</v>
+        <v>3452.928782036464</v>
       </c>
       <c r="U41" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V41" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926989</v>
       </c>
       <c r="W41" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X41" t="n">
-        <v>2471.954265198714</v>
+        <v>2471.954265198716</v>
       </c>
       <c r="Y41" t="n">
-        <v>2164.312798124363</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I42" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668322</v>
       </c>
       <c r="J42" t="n">
-        <v>205.9429491089204</v>
+        <v>205.9429491089205</v>
       </c>
       <c r="K42" t="n">
-        <v>297.9253028678853</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L42" t="n">
-        <v>835.0614118298853</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M42" t="n">
-        <v>1513.853137555329</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N42" t="n">
-        <v>2226.317473840365</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O42" t="n">
-        <v>2455.850924491076</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P42" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.369812142946</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.6065256951759</v>
+        <v>551.6065256951764</v>
       </c>
       <c r="C43" t="n">
-        <v>465.1682076687298</v>
+        <v>465.1682076687303</v>
       </c>
       <c r="D43" t="n">
-        <v>397.5494331578549</v>
+        <v>397.5494331578554</v>
       </c>
       <c r="E43" t="n">
-        <v>332.1342044769227</v>
+        <v>332.1342044769231</v>
       </c>
       <c r="F43" t="n">
-        <v>267.7421218804731</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G43" t="n">
-        <v>181.7622596172306</v>
+        <v>181.7622596172309</v>
       </c>
       <c r="H43" t="n">
-        <v>111.15345639514</v>
+        <v>111.1534563951403</v>
       </c>
       <c r="I43" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668322</v>
       </c>
       <c r="J43" t="n">
-        <v>145.306817703013</v>
+        <v>145.3068177030131</v>
       </c>
       <c r="K43" t="n">
-        <v>341.9135272959012</v>
+        <v>341.9135272959013</v>
       </c>
       <c r="L43" t="n">
-        <v>626.416974588262</v>
+        <v>626.4169745882621</v>
       </c>
       <c r="M43" t="n">
-        <v>932.3797688178167</v>
+        <v>932.379768817817</v>
       </c>
       <c r="N43" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O43" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P43" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092364</v>
       </c>
       <c r="Q43" t="n">
-        <v>1827.743106315505</v>
+        <v>1827.743106315506</v>
       </c>
       <c r="R43" t="n">
         <v>1785.568617538288</v>
@@ -7600,19 +7600,19 @@
         <v>1520.296723032098</v>
       </c>
       <c r="U43" t="n">
-        <v>1313.649454302506</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V43" t="n">
-        <v>1141.46283099808</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W43" t="n">
-        <v>934.5435258625805</v>
+        <v>934.5435258625812</v>
       </c>
       <c r="X43" t="n">
-        <v>789.051839866024</v>
+        <v>789.0518398660246</v>
       </c>
       <c r="Y43" t="n">
-        <v>650.7571256239548</v>
+        <v>650.7571256239553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C44" t="n">
         <v>1573.746170922753</v>
@@ -7631,49 +7631,49 @@
         <v>1297.978337217463</v>
       </c>
       <c r="E44" t="n">
-        <v>994.6879495206798</v>
+        <v>994.6879495206795</v>
       </c>
       <c r="F44" t="n">
         <v>666.199909632533</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8978388456962</v>
+        <v>331.8978388456961</v>
       </c>
       <c r="H44" t="n">
-        <v>99.12049213807551</v>
+        <v>99.12049213807553</v>
       </c>
       <c r="I44" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668322</v>
       </c>
       <c r="J44" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427396</v>
       </c>
       <c r="K44" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666011</v>
       </c>
       <c r="L44" t="n">
-        <v>1322.294036173219</v>
+        <v>1322.29403617322</v>
       </c>
       <c r="M44" t="n">
-        <v>2003.549288603561</v>
+        <v>1633.261549359959</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.195965702851</v>
+        <v>2310.90822645925</v>
       </c>
       <c r="O44" t="n">
-        <v>2898.898689809519</v>
+        <v>2905.603130016035</v>
       </c>
       <c r="P44" t="n">
-        <v>3368.782648334841</v>
+        <v>3375.487088541357</v>
       </c>
       <c r="Q44" t="n">
-        <v>3633.407021887589</v>
+        <v>3651.128612834161</v>
       </c>
       <c r="R44" t="n">
-        <v>3651.128612834159</v>
+        <v>3651.128612834161</v>
       </c>
       <c r="S44" t="n">
-        <v>3583.970732672775</v>
+        <v>3583.970732672777</v>
       </c>
       <c r="T44" t="n">
         <v>3452.928782036464</v>
@@ -7691,7 +7691,7 @@
         <v>2471.954265198716</v>
       </c>
       <c r="Y44" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I45" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668322</v>
       </c>
       <c r="J45" t="n">
-        <v>205.9429491089204</v>
+        <v>205.9429491089205</v>
       </c>
       <c r="K45" t="n">
-        <v>559.7458875103381</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L45" t="n">
-        <v>729.7500546219135</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M45" t="n">
-        <v>1408.541780347357</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N45" t="n">
-        <v>1945.146481377933</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O45" t="n">
-        <v>2140.572783537538</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P45" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.369812142946</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.6065256951759</v>
+        <v>551.6065256951766</v>
       </c>
       <c r="C46" t="n">
-        <v>465.1682076687298</v>
+        <v>465.1682076687305</v>
       </c>
       <c r="D46" t="n">
-        <v>397.5494331578549</v>
+        <v>397.5494331578556</v>
       </c>
       <c r="E46" t="n">
-        <v>332.1342044769227</v>
+        <v>332.1342044769233</v>
       </c>
       <c r="F46" t="n">
-        <v>267.7421218804731</v>
+        <v>267.7421218804737</v>
       </c>
       <c r="G46" t="n">
-        <v>181.7622596172306</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H46" t="n">
-        <v>111.15345639514</v>
+        <v>111.1534563951406</v>
       </c>
       <c r="I46" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668322</v>
       </c>
       <c r="J46" t="n">
-        <v>145.306817703013</v>
+        <v>145.3068177030133</v>
       </c>
       <c r="K46" t="n">
-        <v>341.9135272959009</v>
+        <v>341.9135272959015</v>
       </c>
       <c r="L46" t="n">
-        <v>626.4169745882616</v>
+        <v>626.4169745882623</v>
       </c>
       <c r="M46" t="n">
-        <v>932.3797688178165</v>
+        <v>932.3797688178172</v>
       </c>
       <c r="N46" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O46" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P46" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092364</v>
       </c>
       <c r="Q46" t="n">
         <v>1827.743106315506</v>
       </c>
       <c r="R46" t="n">
-        <v>1785.568617538288</v>
+        <v>1785.568617538289</v>
       </c>
       <c r="S46" t="n">
-        <v>1662.876369502279</v>
+        <v>1662.87636950228</v>
       </c>
       <c r="T46" t="n">
-        <v>1520.296723032098</v>
+        <v>1520.296723032099</v>
       </c>
       <c r="U46" t="n">
-        <v>1313.649454302506</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V46" t="n">
-        <v>1141.46283099808</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W46" t="n">
-        <v>934.5435258625805</v>
+        <v>934.5435258625814</v>
       </c>
       <c r="X46" t="n">
-        <v>789.051839866024</v>
+        <v>789.0518398660248</v>
       </c>
       <c r="Y46" t="n">
-        <v>650.7571256239548</v>
+        <v>650.7571256239555</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>415.0369250513925</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>251.6495244634302</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>267.3742467671149</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>47.8158229572546</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,16 +8775,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>433.7168661215883</v>
+        <v>433.7168661215881</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>123.6172890295895</v>
       </c>
       <c r="P12" t="n">
-        <v>174.308773733207</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,10 +8933,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>99.50881304516139</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.40688538430931</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>226.3068285002356</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,13 +9170,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>42.96206989592443</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>99.50881304516139</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>186.4938098477192</v>
       </c>
       <c r="N18" t="n">
-        <v>393.2650506598266</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>173.3045132921453</v>
+        <v>173.304513292144</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>47.8158229572546</v>
+        <v>47.81582295725454</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.62909140117887</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>42.96206989592284</v>
       </c>
       <c r="P23" t="n">
-        <v>295.9394002949776</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>111.0942592109271</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,13 +9878,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>25.73259819674013</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>45.41830805827243</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>57.09672758356888</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>254.015504388938</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>57.58491713912176</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>450.9590468602984</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>57.58491713912176</v>
       </c>
       <c r="N32" t="n">
-        <v>45.41830805827448</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>212.9202771464618</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>25.73259819673927</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>257.7332987181793</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>186.4938098477195</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>57.58491713912284</v>
+        <v>57.5849171391213</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P39" t="n">
-        <v>232.3854449562106</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>75.48551405484957</v>
+        <v>57.58491713912221</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>47.8158229572546</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>34.4516651425312</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>75.48551405485031</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.1865555689396</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>47.81582295725454</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>301.7063791370282</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>319.0176857744871</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>335.6751640757413</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>360.620839745191</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>366.3767303348941</v>
       </c>
       <c r="H11" t="n">
-        <v>218.5669642068769</v>
+        <v>215.9808767912935</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>165.1492113858748</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.8767828166184</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>281.4970524736144</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9857627208926</v>
+        <v>302.9857627208925</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5767741854169</v>
+        <v>133.5767741854168</v>
       </c>
       <c r="C13" t="n">
-        <v>120.9916151021074</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>102.360267021692</v>
+        <v>102.3602670216919</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>100.1787566500487</v>
       </c>
       <c r="F13" t="n">
-        <v>99.16584202641084</v>
+        <v>99.16584202641077</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.32029481381463</v>
       </c>
       <c r="U13" t="n">
-        <v>182.4088957825415</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.8824373273076</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>179.4544493925167</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>172.3294473555743</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.5233102566289</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>335.6751640757412</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>360.6208397451909</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>330.5414971716324</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.9039816156958</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.8767828166183</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>281.4970524736144</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.5767741854168</v>
       </c>
       <c r="C16" t="n">
         <v>120.9916151021073</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1787566500487</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>99.16584202641073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.17042414537124</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>51.30064291286114</v>
       </c>
       <c r="T16" t="n">
         <v>176.571530261405</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>62.70324256718953</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>179.4544493925166</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1486550.173267229</v>
+        <v>1486550.17326723</v>
       </c>
     </row>
     <row r="12">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585189</v>
       </c>
       <c r="C2" t="n">
         <v>40963.81693585191</v>
       </c>
       <c r="D2" t="n">
-        <v>40963.8169358519</v>
+        <v>40963.81693585191</v>
       </c>
       <c r="E2" t="n">
-        <v>33922.09715771733</v>
+        <v>33922.09715771734</v>
       </c>
       <c r="F2" t="n">
-        <v>36381.92462545094</v>
+        <v>36381.92462545095</v>
       </c>
       <c r="G2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="H2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321422</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
@@ -26338,22 +26338,22 @@
         <v>41052.08849321416</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>765922.9220621448</v>
+        <v>765922.9220621452</v>
       </c>
       <c r="F3" t="n">
-        <v>45631.45848158521</v>
+        <v>45631.45848158517</v>
       </c>
       <c r="G3" t="n">
-        <v>49003.69675080327</v>
+        <v>49003.69675080325</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42463.55670056818</v>
+        <v>42463.55670056819</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49003.69675080332</v>
+        <v>49003.6967508033</v>
       </c>
       <c r="M3" t="n">
         <v>162894.6891756674</v>
       </c>
       <c r="N3" t="n">
-        <v>39006.49934567612</v>
+        <v>39006.49934567615</v>
       </c>
       <c r="O3" t="n">
-        <v>16334.61225115363</v>
+        <v>16334.6122511536</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>111492.9860655483</v>
       </c>
       <c r="F4" t="n">
-        <v>127881.7967627226</v>
+        <v>127881.7967627225</v>
       </c>
       <c r="G4" t="n">
-        <v>181150.5889076155</v>
+        <v>181150.5889076154</v>
       </c>
       <c r="H4" t="n">
-        <v>181150.5889076155</v>
+        <v>181150.5889076154</v>
       </c>
       <c r="I4" t="n">
         <v>181150.5889076154</v>
@@ -26451,10 +26451,10 @@
         <v>173949.7893477467</v>
       </c>
       <c r="N4" t="n">
-        <v>173949.7893477468</v>
+        <v>173949.7893477467</v>
       </c>
       <c r="O4" t="n">
-        <v>173949.7893477467</v>
+        <v>173949.7893477466</v>
       </c>
       <c r="P4" t="n">
         <v>173949.7893477467</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>58114.24465058542</v>
+        <v>58114.24465058543</v>
       </c>
       <c r="F5" t="n">
         <v>67797.1099950232</v>
       </c>
       <c r="G5" t="n">
-        <v>72946.72472270229</v>
+        <v>72946.7247227023</v>
       </c>
       <c r="H5" t="n">
-        <v>72946.72472270229</v>
+        <v>72946.7247227023</v>
       </c>
       <c r="I5" t="n">
-        <v>72946.72472270229</v>
+        <v>72946.7247227023</v>
       </c>
       <c r="J5" t="n">
         <v>76846.39990845601</v>
       </c>
       <c r="K5" t="n">
-        <v>76846.39990845601</v>
+        <v>76846.39990845602</v>
       </c>
       <c r="L5" t="n">
         <v>76846.39990845602</v>
@@ -26506,10 +26506,10 @@
         <v>76846.39990845602</v>
       </c>
       <c r="O5" t="n">
-        <v>76846.39990845599</v>
+        <v>76846.39990845602</v>
       </c>
       <c r="P5" t="n">
-        <v>76846.39990845599</v>
+        <v>76846.39990845602</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407436.1816771069</v>
+        <v>-407440.5952549751</v>
       </c>
       <c r="C6" t="n">
-        <v>-407436.181677107</v>
+        <v>-407440.5952549751</v>
       </c>
       <c r="D6" t="n">
-        <v>-407436.181677107</v>
+        <v>-407440.5952549751</v>
       </c>
       <c r="E6" t="n">
-        <v>-901608.0556205612</v>
+        <v>-901964.5551873365</v>
       </c>
       <c r="F6" t="n">
-        <v>-204928.4406138801</v>
+        <v>-205161.9488072681</v>
       </c>
       <c r="G6" t="n">
-        <v>-262048.9218879068</v>
+        <v>-262048.9218879067</v>
       </c>
       <c r="H6" t="n">
         <v>-213045.2251371035</v>
@@ -26552,13 +26552,13 @@
         <v>-258747.7975137919</v>
       </c>
       <c r="M6" t="n">
-        <v>-372638.789938656</v>
+        <v>-372638.7899386559</v>
       </c>
       <c r="N6" t="n">
         <v>-248750.6001086647</v>
       </c>
       <c r="O6" t="n">
-        <v>-226078.7130141422</v>
+        <v>-226078.7130141421</v>
       </c>
       <c r="P6" t="n">
         <v>-209744.1007629885</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="F2" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="G2" t="n">
         <v>107.5098269350246</v>
@@ -26707,25 +26707,25 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J2" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="K2" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="L2" t="n">
         <v>81.6728862524462</v>
       </c>
       <c r="M2" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="N2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="O2" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="P2" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="F3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="G3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="H3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="I3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="J3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="K3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="L3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="M3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="N3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="O3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="P3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>653.660010175067</v>
+        <v>653.6600101750669</v>
       </c>
       <c r="F4" t="n">
         <v>812.9176638664776</v>
@@ -26820,16 +26820,16 @@
         <v>912.7821532085401</v>
       </c>
       <c r="M4" t="n">
-        <v>912.7821532085401</v>
+        <v>912.78215320854</v>
       </c>
       <c r="N4" t="n">
-        <v>912.7821532085401</v>
+        <v>912.78215320854</v>
       </c>
       <c r="O4" t="n">
-        <v>912.7821532085399</v>
+        <v>912.7821532085402</v>
       </c>
       <c r="P4" t="n">
-        <v>912.7821532085399</v>
+        <v>912.7821532085402</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>61.25462093850408</v>
+        <v>61.25462093850407</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41826531394205</v>
+        <v>20.41826531394206</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.25462093850415</v>
+        <v>61.25462093850413</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394204</v>
+        <v>20.418265313942</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>653.660010175067</v>
+        <v>653.6600101750669</v>
       </c>
       <c r="F4" t="n">
-        <v>159.2576536914106</v>
+        <v>159.2576536914107</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.660010175067</v>
+        <v>653.6600101750668</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914106</v>
+        <v>159.2576536914107</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>61.25462093850408</v>
+        <v>61.25462093850407</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394205</v>
+        <v>20.41826531394206</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.660010175067</v>
+        <v>653.6600101750669</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914106</v>
+        <v>159.2576536914107</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="C11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="D11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="E11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="F11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="G11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="H11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="I11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="T11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="U11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="V11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="W11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="X11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="C13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="D13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="E13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="F13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="G13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="H13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="I13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="J13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="K13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="L13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="M13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="N13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="O13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="P13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="R13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="S13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="T13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="U13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="V13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="W13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="X13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.25520599652041</v>
+        <v>46.25520599652047</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="C14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="D14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="E14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="F14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="G14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="H14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="I14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="T14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="U14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="V14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="W14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="X14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="C16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="D16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="E16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="F16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="G16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="H16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="I16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="J16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="K16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="L16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="M16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="N16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="O16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="P16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="R16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="S16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="T16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="U16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="V16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="W16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="X16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652051</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J19" t="n">
-        <v>8.658496912719102</v>
+        <v>16.57887240984643</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,19 +28752,19 @@
         <v>107.5098269350246</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>107.5098269350246</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.92037549712736</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>107.5098269350246</v>
@@ -28980,28 +28980,28 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J22" t="n">
-        <v>8.658496912719102</v>
+        <v>8.658496912719073</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>107.5098269350246</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
-        <v>7.920375497127452</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.920375497127225</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.5098269350246</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>107.5098269350246</v>
@@ -29217,22 +29217,22 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J25" t="n">
-        <v>8.658496912719102</v>
+        <v>8.658496912719073</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="L25" t="n">
         <v>107.5098269350246</v>
       </c>
       <c r="M25" t="n">
-        <v>107.5098269350246</v>
+        <v>7.920375497127367</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>7.920375497127338</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="C26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="D26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="E26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="F26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="G26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="H26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="I26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="T26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="U26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="V26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="W26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="X26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="C28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="D28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="E28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="F28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="G28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="H28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="I28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="J28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="K28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="L28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="M28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="N28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="O28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="P28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="R28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="S28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="T28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="U28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="V28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="W28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="X28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.67288625244625</v>
+        <v>81.67288625244619</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="C29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="D29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="E29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="F29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="G29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="H29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="I29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="T29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="U29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="V29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="W29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="X29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="C31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="D31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="E31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="F31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="G31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="H31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="I31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="J31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="K31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="L31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="M31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="N31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="O31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="P31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="R31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="S31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="T31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="U31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="V31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="W31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="X31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.67288625244613</v>
+        <v>81.67288625244615</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="K37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="L37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="M37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="N37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="O37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="P37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="R37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="S37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="K40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="L40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="M40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="N40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="O40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="P40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244552</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="R40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="S40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="C41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="D41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="E41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="F41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="G41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="H41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="I41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="T41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="U41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="V41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="W41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="X41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="C43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="D43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="E43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="F43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="G43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="H43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="I43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="J43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="K43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="L43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="M43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="N43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="O43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="P43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="R43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="S43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="T43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="U43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="V43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="W43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="X43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="C44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="D44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="E44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="F44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="G44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="H44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="I44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="T44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="U44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="V44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="W44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="X44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="C46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="D46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="E46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="F46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="G46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="H46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="I46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="J46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.6728862524464</v>
       </c>
       <c r="K46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="L46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="M46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="N46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="O46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="P46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="R46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="S46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="T46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="U46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="V46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="W46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="X46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244618</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H11" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I11" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J11" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K11" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L11" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M11" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N11" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O11" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P11" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q11" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R11" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S11" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T11" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U11" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H12" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I12" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J12" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K12" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L12" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M12" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N12" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O12" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P12" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q12" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R12" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S12" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T12" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H13" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I13" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J13" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K13" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M13" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N13" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O13" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P13" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R13" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S13" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T13" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H14" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I14" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J14" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K14" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L14" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M14" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N14" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O14" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q14" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R14" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S14" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T14" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U14" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H15" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I15" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J15" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K15" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L15" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M15" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N15" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O15" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P15" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q15" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R15" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S15" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T15" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H16" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I16" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J16" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K16" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M16" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N16" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O16" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P16" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R16" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S16" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T16" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H17" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I17" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J17" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K17" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L17" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M17" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N17" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O17" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P17" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R17" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S17" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T17" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U17" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H18" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I18" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J18" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K18" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L18" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M18" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N18" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O18" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P18" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q18" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R18" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S18" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T18" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H19" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I19" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J19" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K19" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L19" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M19" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N19" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O19" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P19" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R19" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S19" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T19" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H20" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I20" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J20" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K20" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L20" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M20" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N20" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O20" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P20" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q20" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R20" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S20" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T20" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U20" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H21" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I21" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J21" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K21" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L21" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M21" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N21" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O21" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P21" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q21" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R21" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S21" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T21" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H22" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I22" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J22" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K22" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L22" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M22" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N22" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O22" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P22" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R22" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S22" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T22" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H23" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I23" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J23" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K23" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L23" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M23" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N23" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O23" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P23" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R23" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S23" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T23" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U23" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H24" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I24" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J24" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K24" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L24" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M24" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N24" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O24" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P24" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q24" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R24" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S24" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T24" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H25" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I25" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J25" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K25" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M25" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N25" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O25" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P25" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R25" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S25" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T25" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H26" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I26" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J26" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K26" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L26" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M26" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N26" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O26" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P26" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q26" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R26" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S26" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T26" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U26" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H27" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I27" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J27" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K27" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L27" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M27" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N27" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O27" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P27" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q27" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R27" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S27" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T27" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H28" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I28" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J28" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K28" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L28" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M28" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N28" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O28" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P28" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R28" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S28" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T28" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H29" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I29" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J29" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K29" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L29" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M29" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N29" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O29" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P29" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q29" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R29" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S29" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T29" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U29" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H30" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I30" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J30" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K30" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L30" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M30" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N30" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O30" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P30" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q30" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R30" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S30" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T30" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H31" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I31" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J31" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K31" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L31" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M31" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N31" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O31" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P31" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R31" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S31" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T31" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H32" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I32" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J32" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K32" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L32" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M32" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N32" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O32" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P32" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q32" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R32" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S32" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T32" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U32" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H33" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I33" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J33" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K33" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L33" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M33" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N33" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O33" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P33" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q33" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R33" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S33" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T33" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H34" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I34" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J34" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K34" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L34" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M34" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N34" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O34" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P34" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R34" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S34" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T34" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H35" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I35" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J35" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K35" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L35" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M35" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N35" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O35" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P35" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q35" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R35" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S35" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T35" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U35" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H36" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I36" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J36" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K36" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L36" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M36" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N36" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O36" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P36" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q36" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R36" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S36" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T36" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H37" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I37" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J37" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K37" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L37" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M37" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N37" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O37" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P37" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q37" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R37" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S37" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T37" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H38" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I38" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J38" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K38" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L38" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M38" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N38" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O38" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P38" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q38" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R38" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S38" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T38" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U38" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H39" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I39" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J39" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K39" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L39" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M39" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N39" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O39" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P39" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q39" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R39" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S39" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T39" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H40" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I40" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J40" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K40" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L40" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M40" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N40" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O40" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P40" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q40" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R40" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S40" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T40" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H41" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I41" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J41" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K41" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L41" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M41" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N41" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O41" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P41" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q41" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R41" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S41" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T41" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U41" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H42" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I42" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J42" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K42" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L42" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M42" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N42" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O42" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P42" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q42" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R42" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S42" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T42" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H43" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I43" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J43" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K43" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L43" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M43" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N43" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O43" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P43" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q43" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R43" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S43" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T43" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720414</v>
       </c>
       <c r="H44" t="n">
-        <v>27.35234262277669</v>
+        <v>27.3523426227767</v>
       </c>
       <c r="I44" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J44" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667907</v>
       </c>
       <c r="K44" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736758</v>
       </c>
       <c r="L44" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999596</v>
       </c>
       <c r="M44" t="n">
-        <v>468.9693183509473</v>
+        <v>468.9693183509474</v>
       </c>
       <c r="N44" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141931</v>
       </c>
       <c r="O44" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435732</v>
       </c>
       <c r="P44" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204754</v>
       </c>
       <c r="Q44" t="n">
-        <v>288.4164813284879</v>
+        <v>288.416481328488</v>
       </c>
       <c r="R44" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568776</v>
       </c>
       <c r="S44" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402899</v>
       </c>
       <c r="T44" t="n">
-        <v>11.69143218173611</v>
+        <v>11.69143218173612</v>
       </c>
       <c r="U44" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976331</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478334</v>
       </c>
       <c r="H45" t="n">
         <v>13.80117614509338</v>
       </c>
       <c r="I45" t="n">
-        <v>49.20037817392508</v>
+        <v>49.2003781739251</v>
       </c>
       <c r="J45" t="n">
         <v>135.0095982477096</v>
       </c>
       <c r="K45" t="n">
-        <v>230.7529074177579</v>
+        <v>230.752907417758</v>
       </c>
       <c r="L45" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006575</v>
       </c>
       <c r="M45" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754971</v>
       </c>
       <c r="N45" t="n">
-        <v>371.6602834822399</v>
+        <v>371.66028348224</v>
       </c>
       <c r="O45" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561674</v>
       </c>
       <c r="P45" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243759</v>
       </c>
       <c r="Q45" t="n">
         <v>182.4111855253396</v>
       </c>
       <c r="R45" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962851</v>
       </c>
       <c r="S45" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752517</v>
       </c>
       <c r="T45" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603457</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788378</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.198029465402456</v>
+        <v>1.198029465402457</v>
       </c>
       <c r="H46" t="n">
         <v>10.65157106512367</v>
       </c>
       <c r="I46" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773935</v>
       </c>
       <c r="J46" t="n">
-        <v>84.70068320395367</v>
+        <v>84.7006832039537</v>
       </c>
       <c r="K46" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L46" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744708</v>
       </c>
       <c r="M46" t="n">
-        <v>187.7965642903141</v>
+        <v>187.7965642903142</v>
       </c>
       <c r="N46" t="n">
         <v>183.3311817374506</v>
       </c>
       <c r="O46" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461583</v>
       </c>
       <c r="P46" t="n">
-        <v>144.8962182519479</v>
+        <v>144.896218251948</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.3186309620184</v>
+        <v>100.3186309620185</v>
       </c>
       <c r="R46" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527773</v>
       </c>
       <c r="S46" t="n">
         <v>20.87838622887735</v>
       </c>
       <c r="T46" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355951</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.065347061749225</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.63500744010432</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K11" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L11" t="n">
-        <v>185.7060428299721</v>
+        <v>185.7060428299723</v>
       </c>
       <c r="M11" t="n">
-        <v>653.660010175067</v>
+        <v>238.6230851236747</v>
       </c>
       <c r="N11" t="n">
-        <v>498.7941930810322</v>
+        <v>247.1446686176022</v>
       </c>
       <c r="O11" t="n">
-        <v>219.9017415218864</v>
+        <v>487.2759882890014</v>
       </c>
       <c r="P11" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.11079145403843</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K12" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L12" t="n">
-        <v>171.7213809207832</v>
+        <v>171.7213809207834</v>
       </c>
       <c r="M12" t="n">
-        <v>653.660010175067</v>
+        <v>653.6600101750669</v>
       </c>
       <c r="N12" t="n">
-        <v>240.3185713989066</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O12" t="n">
-        <v>591.2626244884524</v>
+        <v>321.0175942413125</v>
       </c>
       <c r="P12" t="n">
-        <v>313.2115720432526</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.5066991751671</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.59670908380131</v>
+        <v>37.5967090838014</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1749556964866</v>
+        <v>163.1749556964867</v>
       </c>
       <c r="L13" t="n">
-        <v>251.9595392313072</v>
+        <v>251.9595392313074</v>
       </c>
       <c r="M13" t="n">
-        <v>273.6356472486751</v>
+        <v>273.6356472486752</v>
       </c>
       <c r="N13" t="n">
-        <v>273.7185601131996</v>
+        <v>273.7185601131997</v>
       </c>
       <c r="O13" t="n">
-        <v>240.1763532567183</v>
+        <v>240.1763532567184</v>
       </c>
       <c r="P13" t="n">
-        <v>188.4299835133618</v>
+        <v>188.4299835133619</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.41179370684446</v>
+        <v>60.41179370684455</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.63500744010432</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K14" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L14" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M14" t="n">
-        <v>688.136618616507</v>
+        <v>238.6230851236747</v>
       </c>
       <c r="N14" t="n">
-        <v>247.144668617602</v>
+        <v>346.6534816627636</v>
       </c>
       <c r="O14" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P14" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.51767683834774</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R14" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K15" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L15" t="n">
-        <v>398.0282094210189</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M15" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N15" t="n">
-        <v>240.3185713989066</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O15" t="n">
-        <v>591.2626244884524</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P15" t="n">
-        <v>138.9027983100456</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.42941143931805</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.59670908380142</v>
+        <v>37.59670908380144</v>
       </c>
       <c r="K16" t="n">
         <v>163.1749556964867</v>
@@ -35811,7 +35811,7 @@
         <v>251.9595392313074</v>
       </c>
       <c r="M16" t="n">
-        <v>273.6356472486752</v>
+        <v>273.6356472486753</v>
       </c>
       <c r="N16" t="n">
         <v>273.7185601131997</v>
@@ -35820,10 +35820,10 @@
         <v>240.1763532567184</v>
       </c>
       <c r="P16" t="n">
-        <v>188.4299835133619</v>
+        <v>188.429983513362</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.41179370684457</v>
+        <v>60.41179370684458</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K17" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L17" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M17" t="n">
-        <v>281.585155019599</v>
+        <v>238.6230851236747</v>
       </c>
       <c r="N17" t="n">
-        <v>684.4915930295862</v>
+        <v>346.6534816627636</v>
       </c>
       <c r="O17" t="n">
-        <v>219.9017415218864</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P17" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R17" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K18" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L18" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M18" t="n">
-        <v>219.9431440534786</v>
+        <v>406.436953901198</v>
       </c>
       <c r="N18" t="n">
-        <v>633.5836220587331</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O18" t="n">
-        <v>591.2626244884524</v>
+        <v>197.400305211723</v>
       </c>
       <c r="P18" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.42941143931805</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>7.920375497127352</v>
       </c>
       <c r="K19" t="n">
         <v>116.9197496999662</v>
@@ -36048,19 +36048,19 @@
         <v>313.2141601698115</v>
       </c>
       <c r="M19" t="n">
-        <v>227.3804412521547</v>
+        <v>334.8902681871793</v>
       </c>
       <c r="N19" t="n">
         <v>227.4633541166792</v>
       </c>
       <c r="O19" t="n">
-        <v>301.4309741952225</v>
+        <v>193.9211472601979</v>
       </c>
       <c r="P19" t="n">
-        <v>142.1747775168414</v>
+        <v>142.1747775168415</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.07696320745141</v>
+        <v>14.15658771032408</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.63500744010432</v>
+        <v>45.6350074401044</v>
       </c>
       <c r="K20" t="n">
-        <v>292.9505883208404</v>
+        <v>292.9505883208393</v>
       </c>
       <c r="L20" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M20" t="n">
-        <v>238.6230851236745</v>
+        <v>238.6230851236747</v>
       </c>
       <c r="N20" t="n">
-        <v>684.4915930295862</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O20" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P20" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K21" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L21" t="n">
-        <v>171.7213809207832</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M21" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N21" t="n">
-        <v>240.3185713989066</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O21" t="n">
-        <v>289.0293966129017</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P21" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.5066991751671</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>224.4295766349908</v>
+        <v>116.9197496999662</v>
       </c>
       <c r="L22" t="n">
-        <v>205.7043332347868</v>
+        <v>205.7043332347869</v>
       </c>
       <c r="M22" t="n">
-        <v>227.3804412521547</v>
+        <v>334.8902681871793</v>
       </c>
       <c r="N22" t="n">
-        <v>235.3837296138066</v>
+        <v>334.9731810517038</v>
       </c>
       <c r="O22" t="n">
         <v>193.9211472601979</v>
       </c>
       <c r="P22" t="n">
-        <v>142.1747775168414</v>
+        <v>150.0951530139687</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.6664146453487</v>
+        <v>14.15658771032408</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K23" t="n">
-        <v>119.6460750286952</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L23" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M23" t="n">
-        <v>688.136618616507</v>
+        <v>238.6230851236747</v>
       </c>
       <c r="N23" t="n">
-        <v>247.144668617602</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O23" t="n">
-        <v>600.7019227846317</v>
+        <v>262.8638114178093</v>
       </c>
       <c r="P23" t="n">
-        <v>448.7709532601834</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R23" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K24" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L24" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M24" t="n">
-        <v>331.0374032644057</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N24" t="n">
-        <v>240.3185713989066</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O24" t="n">
-        <v>591.2626244884524</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P24" t="n">
-        <v>138.9027983100456</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.5066991751671</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>116.9197496999662</v>
+        <v>224.4295766349908</v>
       </c>
       <c r="L25" t="n">
         <v>313.2141601698115</v>
       </c>
       <c r="M25" t="n">
-        <v>334.8902681871793</v>
+        <v>235.3008167492821</v>
       </c>
       <c r="N25" t="n">
         <v>227.4633541166792</v>
       </c>
       <c r="O25" t="n">
-        <v>201.8415227573252</v>
+        <v>193.9211472601979</v>
       </c>
       <c r="P25" t="n">
-        <v>142.1747775168414</v>
+        <v>142.1747775168415</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.15658771032405</v>
+        <v>14.15658771032408</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K26" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L26" t="n">
-        <v>211.4386410267123</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M26" t="n">
-        <v>688.136618616507</v>
+        <v>688.1366186165072</v>
       </c>
       <c r="N26" t="n">
-        <v>684.4915930295862</v>
+        <v>292.5629766758746</v>
       </c>
       <c r="O26" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P26" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q26" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R26" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K27" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L27" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M27" t="n">
-        <v>219.9431440534786</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N27" t="n">
-        <v>297.4152989824755</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O27" t="n">
-        <v>591.2626244884524</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P27" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.5066991751671</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.01438933972715</v>
+        <v>73.01438933972712</v>
       </c>
       <c r="K28" t="n">
         <v>198.5926359524124</v>
@@ -36771,7 +36771,7 @@
         <v>223.8476637692877</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.82947396277029</v>
+        <v>95.82947396277027</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K29" t="n">
-        <v>373.6615794176332</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L29" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M29" t="n">
-        <v>688.136618616507</v>
+        <v>296.2080022627965</v>
       </c>
       <c r="N29" t="n">
-        <v>684.4915930295862</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O29" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P29" t="n">
-        <v>152.8315529652058</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q29" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R29" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K30" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L30" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M30" t="n">
-        <v>219.9431440534786</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N30" t="n">
-        <v>691.2776182592049</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O30" t="n">
-        <v>197.4003052117229</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P30" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.5066991751671</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.01438933972703</v>
+        <v>73.01438933972707</v>
       </c>
       <c r="K31" t="n">
         <v>198.5926359524123</v>
@@ -36999,7 +36999,7 @@
         <v>309.0533275046009</v>
       </c>
       <c r="N31" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691254</v>
       </c>
       <c r="O31" t="n">
         <v>275.594033512644</v>
@@ -37008,7 +37008,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.82947396277018</v>
+        <v>95.82947396277022</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K32" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L32" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M32" t="n">
-        <v>688.136618616507</v>
+        <v>296.2080022627965</v>
       </c>
       <c r="N32" t="n">
-        <v>292.5629766758765</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O32" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P32" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q32" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R32" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K33" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L33" t="n">
-        <v>384.6416580672451</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M33" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N33" t="n">
-        <v>719.6609457424602</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O33" t="n">
-        <v>197.4003052117229</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P33" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.42941143931805</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972713</v>
       </c>
       <c r="K34" t="n">
         <v>198.5926359524124</v>
       </c>
       <c r="L34" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M34" t="n">
-        <v>309.0533275046009</v>
+        <v>309.053327504601</v>
       </c>
       <c r="N34" t="n">
         <v>309.1362403691254</v>
       </c>
       <c r="O34" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126442</v>
       </c>
       <c r="P34" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277028</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K35" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L35" t="n">
-        <v>603.3672573804226</v>
+        <v>211.4386410267116</v>
       </c>
       <c r="M35" t="n">
-        <v>688.136618616507</v>
+        <v>688.1366186165072</v>
       </c>
       <c r="N35" t="n">
-        <v>504.8779673357813</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O35" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P35" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.11079145403843</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R35" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K36" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L36" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M36" t="n">
-        <v>406.4369539011982</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N36" t="n">
-        <v>240.3185713989066</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O36" t="n">
-        <v>197.4003052117229</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P36" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.5066991751671</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972716</v>
       </c>
       <c r="K37" t="n">
         <v>198.5926359524124</v>
       </c>
       <c r="L37" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M37" t="n">
-        <v>309.0533275046009</v>
+        <v>309.053327504601</v>
       </c>
       <c r="N37" t="n">
-        <v>309.1362403691254</v>
+        <v>309.1362403691255</v>
       </c>
       <c r="O37" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126442</v>
       </c>
       <c r="P37" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277031</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K38" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L38" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M38" t="n">
-        <v>296.2080022627974</v>
+        <v>296.208002262796</v>
       </c>
       <c r="N38" t="n">
-        <v>684.4915930295862</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O38" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P38" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R38" t="n">
-        <v>17.90059691572785</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K39" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L39" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M39" t="n">
-        <v>219.9431440534786</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N39" t="n">
-        <v>719.6609457424602</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O39" t="n">
-        <v>591.2626244884524</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P39" t="n">
-        <v>371.2882432662561</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.42941143931805</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.01438933972712</v>
+        <v>73.01438933972716</v>
       </c>
       <c r="K40" t="n">
         <v>198.5926359524124</v>
       </c>
       <c r="L40" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M40" t="n">
-        <v>309.0533275046009</v>
+        <v>309.053327504601</v>
       </c>
       <c r="N40" t="n">
-        <v>309.1362403691254</v>
+        <v>309.1362403691255</v>
       </c>
       <c r="O40" t="n">
-        <v>275.5940335126441</v>
+        <v>275.5940335126442</v>
       </c>
       <c r="P40" t="n">
-        <v>223.8476637692876</v>
+        <v>223.847663769287</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.82947396277027</v>
+        <v>95.82947396277031</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K41" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L41" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M41" t="n">
-        <v>314.1085991785241</v>
+        <v>296.2080022627969</v>
       </c>
       <c r="N41" t="n">
-        <v>684.4915930295862</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O41" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P41" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q41" t="n">
-        <v>278.4257821139431</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>17.9005969157279</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K42" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L42" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M42" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N42" t="n">
-        <v>719.6609457424602</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O42" t="n">
-        <v>231.8519703542541</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P42" t="n">
-        <v>138.9027983100456</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.42941143931805</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>198.5926359524124</v>
       </c>
       <c r="L43" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M43" t="n">
         <v>309.0533275046009</v>
@@ -37950,10 +37950,10 @@
         <v>309.1362403691254</v>
       </c>
       <c r="O43" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126441</v>
       </c>
       <c r="P43" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q43" t="n">
         <v>95.82947396277025</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>214.7316226121781</v>
+        <v>214.7316226121782</v>
       </c>
       <c r="K44" t="n">
-        <v>443.7914875998599</v>
+        <v>443.79148759986</v>
       </c>
       <c r="L44" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804228</v>
       </c>
       <c r="M44" t="n">
-        <v>688.136618616507</v>
+        <v>314.108599178525</v>
       </c>
       <c r="N44" t="n">
-        <v>684.4915930295862</v>
+        <v>684.4915930295863</v>
       </c>
       <c r="O44" t="n">
-        <v>219.9017415218864</v>
+        <v>600.7019227846318</v>
       </c>
       <c r="P44" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366885</v>
       </c>
       <c r="Q44" t="n">
-        <v>267.297347022978</v>
+        <v>278.4257821139432</v>
       </c>
       <c r="R44" t="n">
-        <v>17.90059691572785</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214518</v>
       </c>
       <c r="K45" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559776</v>
       </c>
       <c r="L45" t="n">
-        <v>171.7213809207832</v>
+        <v>542.5617262242425</v>
       </c>
       <c r="M45" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534788</v>
       </c>
       <c r="N45" t="n">
-        <v>542.0249505359347</v>
+        <v>240.3185713989067</v>
       </c>
       <c r="O45" t="n">
-        <v>197.4003052117229</v>
+        <v>383.8941150594422</v>
       </c>
       <c r="P45" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499828</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.42941143931805</v>
+        <v>252.5066991751672</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972733</v>
       </c>
       <c r="K46" t="n">
         <v>198.5926359524124</v>
       </c>
       <c r="L46" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M46" t="n">
         <v>309.0533275046009</v>
@@ -38187,10 +38187,10 @@
         <v>309.1362403691254</v>
       </c>
       <c r="O46" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126441</v>
       </c>
       <c r="P46" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q46" t="n">
         <v>95.82947396277025</v>
